--- a/Data/FakeData/fakedata_properties.xlsx
+++ b/Data/FakeData/fakedata_properties.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23812"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="7320" yWindow="3940" windowWidth="25600" windowHeight="19020" tabRatio="500"/>
+    <workbookView xWindow="33600" yWindow="-440" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="90">
   <si>
     <t>Details of Fake Data</t>
   </si>
@@ -30,33 +30,12 @@
     <t>filename</t>
   </si>
   <si>
-    <t>fakepowlaw1.dat</t>
-  </si>
-  <si>
-    <t>fakepowlaw2.dat</t>
-  </si>
-  <si>
-    <t>fakepowlaw3.dat</t>
-  </si>
-  <si>
-    <t>fakepowlaw4.dat</t>
-  </si>
-  <si>
-    <t>fakepowlaw5.dat</t>
-  </si>
-  <si>
-    <t>fakepowlaw6.dat</t>
-  </si>
-  <si>
     <t>wave start</t>
   </si>
   <si>
     <t>wave end</t>
   </si>
   <si>
-    <t>dispersion type</t>
-  </si>
-  <si>
     <t>dispersion</t>
   </si>
   <si>
@@ -70,13 +49,253 @@
   </si>
   <si>
     <t>lam_0</t>
+  </si>
+  <si>
+    <t>S/N</t>
+  </si>
+  <si>
+    <t>S/N range</t>
+  </si>
+  <si>
+    <t>1500-1525</t>
+  </si>
+  <si>
+    <t>5000-5020</t>
+  </si>
+  <si>
+    <t>fakepowlaw1_deg.dat</t>
+  </si>
+  <si>
+    <t>fakepowlaw2_deg.dat</t>
+  </si>
+  <si>
+    <t>fakepowlaw3_deg.dat</t>
+  </si>
+  <si>
+    <t>fakepowlaw4_deg.dat</t>
+  </si>
+  <si>
+    <t>fakepowlaw5_deg.dat</t>
+  </si>
+  <si>
+    <t>fakepowlaw6_deg.dat</t>
+  </si>
+  <si>
+    <t>6700-6740</t>
+  </si>
+  <si>
+    <t>1800-1820</t>
+  </si>
+  <si>
+    <t>3000-3050</t>
+  </si>
+  <si>
+    <t>6000-6045</t>
+  </si>
+  <si>
+    <t>redshift</t>
+  </si>
+  <si>
+    <t>Line shape</t>
+  </si>
+  <si>
+    <t>Gaussian</t>
+  </si>
+  <si>
+    <t>FWHM(A)</t>
+  </si>
+  <si>
+    <t>FWHM(km/s)</t>
+  </si>
+  <si>
+    <t>sigma(km/s)</t>
+  </si>
+  <si>
+    <t>1545-1555</t>
+  </si>
+  <si>
+    <t>integrated flux</t>
+  </si>
+  <si>
+    <t>No. of lines</t>
+  </si>
+  <si>
+    <t>sigma(A)</t>
+  </si>
+  <si>
+    <t>4855-4865</t>
+  </si>
+  <si>
+    <t>wav_Center(obs)</t>
+  </si>
+  <si>
+    <t>*BL component notes</t>
+  </si>
+  <si>
+    <t>S/N calculations are effectively meaningless because the continuum level on all Emission Component spectra is zero.  But they are what I used to add "some" noise to the spectra</t>
+  </si>
+  <si>
+    <t>emissionLineComps Descriptions</t>
+  </si>
+  <si>
+    <t>Single CIV line at z=0</t>
+  </si>
+  <si>
+    <t>Hbeta, [OIII]4959,5007 line complex at z=0</t>
+  </si>
+  <si>
+    <t>Halpha, Hbeta, and Hgamma at z=0.1</t>
+  </si>
+  <si>
+    <t>5340-5350</t>
+  </si>
+  <si>
+    <t>EmissionLineComp/</t>
+  </si>
+  <si>
+    <t>MgII line that is a doublet blend of two Gaussians</t>
+  </si>
+  <si>
+    <t>CIV, MgII, HeII 1640, HeII 4686, Hbeta, and Halpha, all two component Gaussians</t>
+  </si>
+  <si>
+    <t>Gaussian/Gauss-Hermite</t>
+  </si>
+  <si>
+    <t>redshifting is "fake"; I just placed the line centers at a redshifted center, and then made lines there, so any line widths calculated in "rest frame" via our usual codes will be different than input widths per 1+z effects.</t>
+  </si>
+  <si>
+    <t>2570-2580</t>
+  </si>
+  <si>
+    <t>Mean Frac Error</t>
+  </si>
+  <si>
+    <t>Because there is no continua under emission line spectra, the addition of noise creates negative fluxes.</t>
+  </si>
+  <si>
+    <t>Line Description</t>
+  </si>
+  <si>
+    <t>CIV</t>
+  </si>
+  <si>
+    <t>[OIII]4959</t>
+  </si>
+  <si>
+    <t>[OIII]5007</t>
+  </si>
+  <si>
+    <t>Hgamma</t>
+  </si>
+  <si>
+    <t>Hbeta</t>
+  </si>
+  <si>
+    <t>Halpha</t>
+  </si>
+  <si>
+    <t>CIV Ghfit</t>
+  </si>
+  <si>
+    <t>CIV Line that is actual Gauss-Hermite fit to real data, CIII]/SiIII] line that's two blended Gaussians at redshift 0.35</t>
+  </si>
+  <si>
+    <t>SiIII]</t>
+  </si>
+  <si>
+    <t>CIII]</t>
+  </si>
+  <si>
+    <t>MgII blue</t>
+  </si>
+  <si>
+    <t>MgII red</t>
+  </si>
+  <si>
+    <t>A/pix</t>
+  </si>
+  <si>
+    <t>fakeBLcomp1_werr.dat</t>
+  </si>
+  <si>
+    <t>fakeBLcomp3_werr.dat</t>
+  </si>
+  <si>
+    <t>fakeBLcomp4_werr.dat</t>
+  </si>
+  <si>
+    <t>fakeBLcomp5_werr.dat</t>
+  </si>
+  <si>
+    <t>fakeBLcomp2_werr.dat</t>
+  </si>
+  <si>
+    <t>2793-2807</t>
+  </si>
+  <si>
+    <t>fakeBLcomp6_werr.dat</t>
+  </si>
+  <si>
+    <t>1 line, 1 comp</t>
+  </si>
+  <si>
+    <t>3 lines, 4 comp</t>
+  </si>
+  <si>
+    <t>3 lines, 3 comp</t>
+  </si>
+  <si>
+    <t>2 lines, 3 comp</t>
+  </si>
+  <si>
+    <t>1 line, 2 comp</t>
+  </si>
+  <si>
+    <t>6 lines, 12 comp</t>
+  </si>
+  <si>
+    <t>CIV nar</t>
+  </si>
+  <si>
+    <t>CIV broad,blue</t>
+  </si>
+  <si>
+    <t>HeII 1640, cen</t>
+  </si>
+  <si>
+    <t>HeII1640, blue</t>
+  </si>
+  <si>
+    <t>HeII 4686, cen</t>
+  </si>
+  <si>
+    <t>HeII4686, blue</t>
+  </si>
+  <si>
+    <t>Hbeta NLR</t>
+  </si>
+  <si>
+    <t>Hbeta narrowish</t>
+  </si>
+  <si>
+    <t>Hbeta BLR</t>
+  </si>
+  <si>
+    <t>Hbeta broad, blue</t>
+  </si>
+  <si>
+    <t>Halpha narrowish</t>
+  </si>
+  <si>
+    <t>Halpha broad</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -107,6 +326,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -125,23 +351,257 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="121">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="121">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="10" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="12" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="14" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="16" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="18" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="20" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="22" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="24" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="26" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="28" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="30" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="32" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="34" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="36" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="38" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="40" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="42" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="44" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="46" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="48" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="50" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="52" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="54" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="56" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="58" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="60" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="62" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="64" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="66" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="68" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="70" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="72" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="74" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="76" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="78" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="80" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="82" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="84" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="86" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="88" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="90" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="92" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="94" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="96" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="98" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="100" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="102" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="104" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="106" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="108" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="110" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="112" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="114" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="9" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="11" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="13" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="15" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="17" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="19" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="21" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="23" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="25" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="27" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="29" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="31" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="33" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="35" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="37" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="39" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="41" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="43" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="45" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="47" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="49" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="51" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="53" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="55" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="57" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="59" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="61" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="63" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="65" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="67" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="69" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="71" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="73" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="75" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="77" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="79" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="81" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="83" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="85" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="87" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="89" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="91" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="93" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="95" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="97" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="99" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="101" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="103" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="105" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="107" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="109" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="111" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="113" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -471,58 +931,74 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:AF53"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+      <selection activeCell="K11" sqref="K11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
-    <col min="1" max="1" width="16.33203125" customWidth="1"/>
-    <col min="4" max="4" width="14.33203125" customWidth="1"/>
+    <col min="1" max="1" width="19.83203125" customWidth="1"/>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="6.33203125" customWidth="1"/>
     <col min="6" max="6" width="18.1640625" customWidth="1"/>
+    <col min="7" max="7" width="21.1640625" customWidth="1"/>
+    <col min="8" max="8" width="15" customWidth="1"/>
+    <col min="9" max="9" width="6" customWidth="1"/>
+    <col min="11" max="12" width="14.5" customWidth="1"/>
+    <col min="13" max="13" width="15.33203125" customWidth="1"/>
+    <col min="17" max="17" width="13.83203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:32">
       <c r="A1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:32">
       <c r="A3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:8" ht="18">
+    <row r="4" spans="1:32" ht="18">
       <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" t="s">
+        <v>4</v>
+      </c>
+      <c r="D4" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" t="s">
+        <v>64</v>
+      </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" t="s">
+        <v>8</v>
+      </c>
+      <c r="H4" t="s">
         <v>9</v>
       </c>
-      <c r="C4" t="s">
+      <c r="I4" t="s">
         <v>10</v>
       </c>
-      <c r="D4" t="s">
+      <c r="J4" t="s">
         <v>11</v>
       </c>
-      <c r="E4" t="s">
-        <v>12</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="K4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="1:32">
+      <c r="A5" t="s">
         <v>14</v>
-      </c>
-      <c r="G4" t="s">
-        <v>15</v>
-      </c>
-      <c r="H4" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" t="s">
-        <v>3</v>
       </c>
       <c r="B5">
         <v>1159</v>
@@ -531,7 +1007,7 @@
         <v>2003</v>
       </c>
       <c r="D5" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -545,10 +1021,19 @@
       <c r="H5">
         <v>1581</v>
       </c>
-    </row>
-    <row r="6" spans="1:8">
+      <c r="I5">
+        <v>47.4</v>
+      </c>
+      <c r="J5" t="s">
+        <v>12</v>
+      </c>
+      <c r="K5">
+        <v>2.1000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:32">
       <c r="A6" t="s">
-        <v>4</v>
+        <v>15</v>
       </c>
       <c r="B6">
         <v>4300</v>
@@ -557,7 +1042,7 @@
         <v>5800</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E6">
         <v>1.25</v>
@@ -571,10 +1056,19 @@
       <c r="H6">
         <v>5050</v>
       </c>
-    </row>
-    <row r="7" spans="1:8">
+      <c r="I6">
+        <v>36.299999999999997</v>
+      </c>
+      <c r="J6" t="s">
+        <v>13</v>
+      </c>
+      <c r="K6">
+        <v>2.8000000000000001E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:32">
       <c r="A7" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="B7">
         <v>3600</v>
@@ -583,7 +1077,7 @@
         <v>8200</v>
       </c>
       <c r="D7" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -597,10 +1091,19 @@
       <c r="H7">
         <v>5900</v>
       </c>
-    </row>
-    <row r="8" spans="1:8">
+      <c r="I7">
+        <v>66.5</v>
+      </c>
+      <c r="J7" t="s">
+        <v>20</v>
+      </c>
+      <c r="K7">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:32">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>17</v>
       </c>
       <c r="B8">
         <v>1750.3859199999999</v>
@@ -609,7 +1112,7 @@
         <v>2932.9459200000001</v>
       </c>
       <c r="D8" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E8">
         <v>0.12447999999999999</v>
@@ -623,10 +1126,19 @@
       <c r="H8">
         <v>2341.6659199999999</v>
       </c>
-    </row>
-    <row r="9" spans="1:8">
+      <c r="I8">
+        <v>105.5</v>
+      </c>
+      <c r="J8" t="s">
+        <v>21</v>
+      </c>
+      <c r="K8">
+        <v>8.9999999999999993E-3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:32">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>18</v>
       </c>
       <c r="B9">
         <v>2300</v>
@@ -635,7 +1147,7 @@
         <v>3875</v>
       </c>
       <c r="D9" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E9">
         <v>0.25</v>
@@ -649,10 +1161,19 @@
       <c r="H9">
         <v>3087.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:8">
+      <c r="I9">
+        <v>78.2</v>
+      </c>
+      <c r="J9" t="s">
+        <v>22</v>
+      </c>
+      <c r="K9">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="B10">
         <v>1400</v>
@@ -661,7 +1182,7 @@
         <v>12000</v>
       </c>
       <c r="D10" t="s">
-        <v>13</v>
+        <v>6</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -674,6 +1195,1080 @@
       </c>
       <c r="H10">
         <v>6701</v>
+      </c>
+      <c r="I10">
+        <v>43.2</v>
+      </c>
+      <c r="J10" t="s">
+        <v>23</v>
+      </c>
+      <c r="K10">
+        <v>2.3E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:32">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+      <c r="B13" t="s">
+        <v>3</v>
+      </c>
+      <c r="C13" t="s">
+        <v>4</v>
+      </c>
+      <c r="D13" t="s">
+        <v>5</v>
+      </c>
+      <c r="E13" t="s">
+        <v>64</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+      <c r="G13" t="s">
+        <v>25</v>
+      </c>
+      <c r="H13" t="s">
+        <v>32</v>
+      </c>
+      <c r="I13" t="s">
+        <v>10</v>
+      </c>
+      <c r="J13" t="s">
+        <v>11</v>
+      </c>
+      <c r="K13" t="s">
+        <v>49</v>
+      </c>
+      <c r="L13" t="s">
+        <v>51</v>
+      </c>
+      <c r="M13" t="s">
+        <v>35</v>
+      </c>
+      <c r="N13" t="s">
+        <v>31</v>
+      </c>
+      <c r="O13" t="s">
+        <v>27</v>
+      </c>
+      <c r="P13" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>28</v>
+      </c>
+      <c r="R13" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32">
+      <c r="A14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14">
+        <v>1159</v>
+      </c>
+      <c r="C14">
+        <v>2003</v>
+      </c>
+      <c r="D14" t="s">
+        <v>6</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0</v>
+      </c>
+      <c r="G14" t="s">
+        <v>26</v>
+      </c>
+      <c r="H14" t="s">
+        <v>72</v>
+      </c>
+      <c r="I14">
+        <v>69</v>
+      </c>
+      <c r="J14" t="s">
+        <v>30</v>
+      </c>
+      <c r="K14">
+        <v>1.4500000000000001E-2</v>
+      </c>
+      <c r="L14" t="s">
+        <v>52</v>
+      </c>
+      <c r="M14">
+        <v>1549</v>
+      </c>
+      <c r="N14" s="2">
+        <v>2.0000000000000001E-13</v>
+      </c>
+      <c r="O14">
+        <f>20*2.35</f>
+        <v>47</v>
+      </c>
+      <c r="P14">
+        <v>20</v>
+      </c>
+      <c r="Q14">
+        <f>47/1549*300000</f>
+        <v>9102.6468689477078</v>
+      </c>
+      <c r="R14">
+        <f>20/1549*300000</f>
+        <v>3873.4667527437055</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32">
+      <c r="A15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B15">
+        <v>4300</v>
+      </c>
+      <c r="C15">
+        <v>5800</v>
+      </c>
+      <c r="D15" t="s">
+        <v>6</v>
+      </c>
+      <c r="E15">
+        <v>1.25</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15" t="s">
+        <v>26</v>
+      </c>
+      <c r="H15" t="s">
+        <v>73</v>
+      </c>
+      <c r="I15">
+        <v>19.3</v>
+      </c>
+      <c r="J15" t="s">
+        <v>34</v>
+      </c>
+      <c r="K15">
+        <v>5.1799999999999999E-2</v>
+      </c>
+      <c r="L15" t="s">
+        <v>86</v>
+      </c>
+      <c r="M15">
+        <v>4861</v>
+      </c>
+      <c r="N15" s="2">
+        <v>4.0000000000000001E-13</v>
+      </c>
+      <c r="O15">
+        <f>P15*2.35</f>
+        <v>82.25</v>
+      </c>
+      <c r="P15">
+        <v>35</v>
+      </c>
+      <c r="Q15">
+        <f>O15/M15*300000</f>
+        <v>5076.1160255091545</v>
+      </c>
+      <c r="R15">
+        <f>P15/M15*300000</f>
+        <v>2160.0493725570868</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32">
+      <c r="G16" t="s">
+        <v>26</v>
+      </c>
+      <c r="L16" t="s">
+        <v>84</v>
+      </c>
+      <c r="M16">
+        <v>4861</v>
+      </c>
+      <c r="N16" s="2">
+        <v>5.9999999999999997E-14</v>
+      </c>
+      <c r="O16">
+        <f>P16*2.35</f>
+        <v>15.275</v>
+      </c>
+      <c r="P16">
+        <v>6.5</v>
+      </c>
+      <c r="Q16">
+        <f>O16/M16*300000</f>
+        <v>942.70726188027163</v>
+      </c>
+      <c r="R16">
+        <f>P16/M16*300000</f>
+        <v>401.15202633203046</v>
+      </c>
+      <c r="T16" s="2"/>
+      <c r="Z16" s="2"/>
+      <c r="AF16" s="2"/>
+    </row>
+    <row r="17" spans="1:32">
+      <c r="G17" t="s">
+        <v>26</v>
+      </c>
+      <c r="L17" t="s">
+        <v>53</v>
+      </c>
+      <c r="M17">
+        <v>4959</v>
+      </c>
+      <c r="N17" s="2">
+        <v>2.0000000000000001E-13</v>
+      </c>
+      <c r="O17">
+        <f>P17*2.35</f>
+        <v>15.51</v>
+      </c>
+      <c r="P17">
+        <v>6.6</v>
+      </c>
+      <c r="Q17">
+        <f>O17/M17*300000</f>
+        <v>938.29401088929217</v>
+      </c>
+      <c r="R17">
+        <f>P17/M17*300000</f>
+        <v>399.27404718693282</v>
+      </c>
+      <c r="T17" s="2"/>
+      <c r="Z17" s="2"/>
+      <c r="AF17" s="2"/>
+    </row>
+    <row r="18" spans="1:32">
+      <c r="G18" t="s">
+        <v>26</v>
+      </c>
+      <c r="L18" t="s">
+        <v>54</v>
+      </c>
+      <c r="M18">
+        <v>5007</v>
+      </c>
+      <c r="N18" s="2">
+        <v>5.9999999999999997E-13</v>
+      </c>
+      <c r="O18">
+        <f>P18*2.35</f>
+        <v>15.745000000000001</v>
+      </c>
+      <c r="P18">
+        <v>6.7</v>
+      </c>
+      <c r="Q18">
+        <f>O18/M18*300000</f>
+        <v>943.37926902336744</v>
+      </c>
+      <c r="R18">
+        <f>P18/M18*300000</f>
+        <v>401.43798681845419</v>
+      </c>
+      <c r="T18" s="2"/>
+      <c r="Z18" s="2"/>
+      <c r="AF18" s="2"/>
+    </row>
+    <row r="19" spans="1:32">
+      <c r="A19" t="s">
+        <v>66</v>
+      </c>
+      <c r="B19">
+        <v>3600</v>
+      </c>
+      <c r="C19">
+        <v>8200</v>
+      </c>
+      <c r="D19" t="s">
+        <v>6</v>
+      </c>
+      <c r="E19">
+        <v>2</v>
+      </c>
+      <c r="F19">
+        <v>0.1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>26</v>
+      </c>
+      <c r="H19" t="s">
+        <v>74</v>
+      </c>
+      <c r="I19">
+        <v>31.6</v>
+      </c>
+      <c r="J19" t="s">
+        <v>42</v>
+      </c>
+      <c r="K19">
+        <v>3.1600000000000003E-2</v>
+      </c>
+      <c r="L19" t="s">
+        <v>55</v>
+      </c>
+      <c r="M19">
+        <v>4774</v>
+      </c>
+      <c r="N19" s="2">
+        <v>2.0000000000000001E-13</v>
+      </c>
+      <c r="O19">
+        <f>P19*2.35</f>
+        <v>60.395000000000003</v>
+      </c>
+      <c r="P19">
+        <v>25.7</v>
+      </c>
+      <c r="Q19">
+        <f>O19/M19*300000</f>
+        <v>3795.2450775031421</v>
+      </c>
+      <c r="R19">
+        <f>P19/M19*300000</f>
+        <v>1614.9979053204859</v>
+      </c>
+    </row>
+    <row r="20" spans="1:32">
+      <c r="G20" t="s">
+        <v>26</v>
+      </c>
+      <c r="L20" t="s">
+        <v>56</v>
+      </c>
+      <c r="M20">
+        <v>5347</v>
+      </c>
+      <c r="N20" s="2">
+        <v>4.0000000000000001E-13</v>
+      </c>
+      <c r="O20">
+        <f>P20*2.35</f>
+        <v>53.580000000000005</v>
+      </c>
+      <c r="P20">
+        <v>22.8</v>
+      </c>
+      <c r="Q20">
+        <f>O20/M20*300000</f>
+        <v>3006.1716850570415</v>
+      </c>
+      <c r="R20">
+        <f>P20/M20*300000</f>
+        <v>1279.2219936412941</v>
+      </c>
+      <c r="T20" s="2"/>
+      <c r="Z20" s="2"/>
+    </row>
+    <row r="21" spans="1:32">
+      <c r="G21" t="s">
+        <v>26</v>
+      </c>
+      <c r="L21" t="s">
+        <v>57</v>
+      </c>
+      <c r="M21">
+        <v>7219</v>
+      </c>
+      <c r="N21" s="2">
+        <v>1.1999999999999999E-12</v>
+      </c>
+      <c r="O21">
+        <f>P21*2.35</f>
+        <v>52.875</v>
+      </c>
+      <c r="P21">
+        <v>22.5</v>
+      </c>
+      <c r="Q21">
+        <f>O21/M21*300000</f>
+        <v>2197.3264995151681</v>
+      </c>
+      <c r="R21">
+        <f>P21/M21*300000</f>
+        <v>935.03255298517797</v>
+      </c>
+      <c r="T21" s="2"/>
+      <c r="Z21" s="2"/>
+    </row>
+    <row r="22" spans="1:32">
+      <c r="A22" t="s">
+        <v>67</v>
+      </c>
+      <c r="B22">
+        <v>1750.3859199999999</v>
+      </c>
+      <c r="C22">
+        <v>2932.9459200000001</v>
+      </c>
+      <c r="D22" t="s">
+        <v>6</v>
+      </c>
+      <c r="E22">
+        <v>0.12447999999999999</v>
+      </c>
+      <c r="F22">
+        <v>0.35</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>75</v>
+      </c>
+      <c r="I22">
+        <v>23.7</v>
+      </c>
+      <c r="J22" t="s">
+        <v>48</v>
+      </c>
+      <c r="K22">
+        <v>4.2200000000000001E-2</v>
+      </c>
+      <c r="L22" t="s">
+        <v>58</v>
+      </c>
+      <c r="M22">
+        <v>2091.3000000000002</v>
+      </c>
+      <c r="N22" s="2">
+        <v>9.3832150000000004E-12</v>
+      </c>
+      <c r="O22">
+        <v>17.234999999999999</v>
+      </c>
+      <c r="P22">
+        <v>20.256</v>
+      </c>
+      <c r="Q22">
+        <v>2470.5610000000001</v>
+      </c>
+      <c r="R22">
+        <v>2903.8009999999999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:32">
+      <c r="G23" t="s">
+        <v>26</v>
+      </c>
+      <c r="L23" t="s">
+        <v>60</v>
+      </c>
+      <c r="M23">
+        <v>2554.1999999999998</v>
+      </c>
+      <c r="N23" s="2">
+        <v>1.6E-12</v>
+      </c>
+      <c r="O23">
+        <f>P23*2.35</f>
+        <v>56.400000000000006</v>
+      </c>
+      <c r="P23">
+        <v>24</v>
+      </c>
+      <c r="Q23">
+        <f>O23/M23*300000</f>
+        <v>6624.3833685694162</v>
+      </c>
+      <c r="R23">
+        <f>P23/M23*300000</f>
+        <v>2818.8865398167727</v>
+      </c>
+      <c r="T23" s="2"/>
+      <c r="Z23" s="2"/>
+    </row>
+    <row r="24" spans="1:32">
+      <c r="G24" t="s">
+        <v>26</v>
+      </c>
+      <c r="L24" t="s">
+        <v>61</v>
+      </c>
+      <c r="M24">
+        <v>2576.8000000000002</v>
+      </c>
+      <c r="N24" s="2">
+        <v>2.8000000000000002E-12</v>
+      </c>
+      <c r="O24">
+        <f>P24*2.35</f>
+        <v>42.300000000000004</v>
+      </c>
+      <c r="P24">
+        <v>18</v>
+      </c>
+      <c r="Q24">
+        <f>O24/M24*300000</f>
+        <v>4924.712822104937</v>
+      </c>
+      <c r="R24">
+        <f>P24/M24*300000</f>
+        <v>2095.6224774914622</v>
+      </c>
+      <c r="T24" s="2"/>
+      <c r="Z24" s="2"/>
+    </row>
+    <row r="25" spans="1:32">
+      <c r="A25" t="s">
+        <v>68</v>
+      </c>
+      <c r="B25">
+        <v>2300</v>
+      </c>
+      <c r="C25">
+        <v>3875</v>
+      </c>
+      <c r="D25" t="s">
+        <v>6</v>
+      </c>
+      <c r="E25">
+        <v>0.25</v>
+      </c>
+      <c r="F25">
+        <v>0</v>
+      </c>
+      <c r="G25" t="s">
+        <v>26</v>
+      </c>
+      <c r="H25" t="s">
+        <v>76</v>
+      </c>
+      <c r="I25">
+        <v>60.7</v>
+      </c>
+      <c r="J25" t="s">
+        <v>70</v>
+      </c>
+      <c r="K25">
+        <v>1.6500000000000001E-2</v>
+      </c>
+      <c r="L25" t="s">
+        <v>62</v>
+      </c>
+      <c r="M25">
+        <v>2796.35</v>
+      </c>
+      <c r="N25" s="2">
+        <v>9E-13</v>
+      </c>
+      <c r="O25">
+        <f>P25*2.35</f>
+        <v>61.1</v>
+      </c>
+      <c r="P25">
+        <v>26</v>
+      </c>
+      <c r="Q25">
+        <f>O25/M25*300000</f>
+        <v>6554.9734475298164</v>
+      </c>
+      <c r="R25">
+        <f>P25/M25*300000</f>
+        <v>2789.3504032041769</v>
+      </c>
+    </row>
+    <row r="26" spans="1:32">
+      <c r="G26" t="s">
+        <v>26</v>
+      </c>
+      <c r="L26" t="s">
+        <v>63</v>
+      </c>
+      <c r="M26" s="3">
+        <v>2803.53</v>
+      </c>
+      <c r="N26" s="2">
+        <v>9E-13</v>
+      </c>
+      <c r="O26">
+        <f>P26*2.35</f>
+        <v>61.1</v>
+      </c>
+      <c r="P26">
+        <v>26</v>
+      </c>
+      <c r="Q26">
+        <f>O26/M26*300000</f>
+        <v>6538.1857872039891</v>
+      </c>
+      <c r="R26">
+        <f>P26/M26*300000</f>
+        <v>2782.206717959144</v>
+      </c>
+      <c r="S26" s="3"/>
+      <c r="T26" s="2"/>
+    </row>
+    <row r="27" spans="1:32">
+      <c r="A27" t="s">
+        <v>71</v>
+      </c>
+      <c r="B27">
+        <v>1400</v>
+      </c>
+      <c r="C27">
+        <v>12000</v>
+      </c>
+      <c r="D27" t="s">
+        <v>6</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>0</v>
+      </c>
+      <c r="G27" t="s">
+        <v>26</v>
+      </c>
+      <c r="H27" t="s">
+        <v>77</v>
+      </c>
+      <c r="I27">
+        <v>23.2</v>
+      </c>
+      <c r="J27" t="s">
+        <v>70</v>
+      </c>
+      <c r="K27">
+        <v>4.3099999999999999E-2</v>
+      </c>
+      <c r="L27" t="s">
+        <v>78</v>
+      </c>
+      <c r="M27">
+        <v>1549</v>
+      </c>
+      <c r="N27" s="2">
+        <v>3.4000000000000001E-12</v>
+      </c>
+      <c r="O27">
+        <f>P27*2.35</f>
+        <v>18.8</v>
+      </c>
+      <c r="P27">
+        <v>8</v>
+      </c>
+      <c r="Q27">
+        <f>O27/M27*300000</f>
+        <v>3641.0587475790835</v>
+      </c>
+      <c r="R27">
+        <f>P27/M27*300000</f>
+        <v>1549.386701097482</v>
+      </c>
+    </row>
+    <row r="28" spans="1:32">
+      <c r="G28" t="s">
+        <v>26</v>
+      </c>
+      <c r="L28" t="s">
+        <v>79</v>
+      </c>
+      <c r="M28">
+        <v>1535</v>
+      </c>
+      <c r="N28" s="2">
+        <v>2.8000000000000002E-12</v>
+      </c>
+      <c r="O28">
+        <f>P28*2.35</f>
+        <v>58.75</v>
+      </c>
+      <c r="P28">
+        <v>25</v>
+      </c>
+      <c r="Q28">
+        <f>O28/M28*300000</f>
+        <v>11482.084690553747</v>
+      </c>
+      <c r="R28">
+        <f>P28/M28*300000</f>
+        <v>4885.99348534202</v>
+      </c>
+    </row>
+    <row r="29" spans="1:32">
+      <c r="G29" t="s">
+        <v>26</v>
+      </c>
+      <c r="L29" t="s">
+        <v>80</v>
+      </c>
+      <c r="M29">
+        <v>1640</v>
+      </c>
+      <c r="N29" s="2">
+        <v>4.0000000000000001E-13</v>
+      </c>
+      <c r="O29">
+        <f>P29*2.35</f>
+        <v>14.100000000000001</v>
+      </c>
+      <c r="P29">
+        <v>6</v>
+      </c>
+      <c r="Q29">
+        <f>O29/M29*300000</f>
+        <v>2579.268292682927</v>
+      </c>
+      <c r="R29">
+        <f>P29/M29*300000</f>
+        <v>1097.5609756097563</v>
+      </c>
+    </row>
+    <row r="30" spans="1:32">
+      <c r="G30" t="s">
+        <v>26</v>
+      </c>
+      <c r="L30" t="s">
+        <v>81</v>
+      </c>
+      <c r="M30">
+        <v>1624</v>
+      </c>
+      <c r="N30" s="2">
+        <v>1.6E-12</v>
+      </c>
+      <c r="O30">
+        <f>P30*2.35</f>
+        <v>65.8</v>
+      </c>
+      <c r="P30">
+        <v>28</v>
+      </c>
+      <c r="Q30">
+        <f>O30/M30*300000</f>
+        <v>12155.172413793103</v>
+      </c>
+      <c r="R30">
+        <f>P30/M30*300000</f>
+        <v>5172.4137931034484</v>
+      </c>
+    </row>
+    <row r="31" spans="1:32">
+      <c r="G31" t="s">
+        <v>26</v>
+      </c>
+      <c r="L31" t="s">
+        <v>62</v>
+      </c>
+      <c r="M31">
+        <v>2796.35</v>
+      </c>
+      <c r="N31" s="2">
+        <v>1.5000000000000001E-12</v>
+      </c>
+      <c r="O31">
+        <f>P31*2.35</f>
+        <v>42.300000000000004</v>
+      </c>
+      <c r="P31">
+        <v>18</v>
+      </c>
+      <c r="Q31">
+        <f>O31/M31*300000</f>
+        <v>4538.0585405975653</v>
+      </c>
+      <c r="R31">
+        <f>P31/M31*300000</f>
+        <v>1931.0887406798147</v>
+      </c>
+    </row>
+    <row r="32" spans="1:32">
+      <c r="G32" t="s">
+        <v>26</v>
+      </c>
+      <c r="L32" t="s">
+        <v>63</v>
+      </c>
+      <c r="M32" s="3">
+        <v>2803.53</v>
+      </c>
+      <c r="N32" s="2">
+        <v>1.5000000000000001E-12</v>
+      </c>
+      <c r="O32">
+        <f>P32*2.35</f>
+        <v>42.300000000000004</v>
+      </c>
+      <c r="P32">
+        <v>18</v>
+      </c>
+      <c r="Q32">
+        <f>O32/M32*300000</f>
+        <v>4526.4363142181464</v>
+      </c>
+      <c r="R32">
+        <f>P32/M32*300000</f>
+        <v>1926.1431124332537</v>
+      </c>
+    </row>
+    <row r="33" spans="1:18">
+      <c r="G33" t="s">
+        <v>26</v>
+      </c>
+      <c r="L33" t="s">
+        <v>82</v>
+      </c>
+      <c r="M33">
+        <v>4686</v>
+      </c>
+      <c r="N33" s="2">
+        <v>1.3E-13</v>
+      </c>
+      <c r="O33">
+        <f>P33*2.35</f>
+        <v>39.950000000000003</v>
+      </c>
+      <c r="P33">
+        <v>17</v>
+      </c>
+      <c r="Q33">
+        <f>O33/M33*300000</f>
+        <v>2557.6184379001284</v>
+      </c>
+      <c r="R33">
+        <f>P33/M33*300000</f>
+        <v>1088.348271446863</v>
+      </c>
+    </row>
+    <row r="34" spans="1:18">
+      <c r="G34" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L34" t="s">
+        <v>83</v>
+      </c>
+      <c r="M34">
+        <v>4640</v>
+      </c>
+      <c r="N34" s="2">
+        <v>5.2999999999999996E-13</v>
+      </c>
+      <c r="O34">
+        <f>P34*2.35</f>
+        <v>188</v>
+      </c>
+      <c r="P34">
+        <v>80</v>
+      </c>
+      <c r="Q34">
+        <f>O34/M34*300000</f>
+        <v>12155.172413793103</v>
+      </c>
+      <c r="R34">
+        <f>P34/M34*300000</f>
+        <v>5172.4137931034484</v>
+      </c>
+    </row>
+    <row r="35" spans="1:18">
+      <c r="G35" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L35" t="s">
+        <v>85</v>
+      </c>
+      <c r="M35">
+        <v>4861</v>
+      </c>
+      <c r="N35" s="2">
+        <v>9E-13</v>
+      </c>
+      <c r="O35">
+        <f>P35*2.35</f>
+        <v>47</v>
+      </c>
+      <c r="P35">
+        <v>20</v>
+      </c>
+      <c r="Q35">
+        <f>O35/M35*300000</f>
+        <v>2900.6377288623739</v>
+      </c>
+      <c r="R35">
+        <f>P35/M35*300000</f>
+        <v>1234.3139271754783</v>
+      </c>
+    </row>
+    <row r="36" spans="1:18">
+      <c r="G36" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L36" t="s">
+        <v>87</v>
+      </c>
+      <c r="M36">
+        <v>4850</v>
+      </c>
+      <c r="N36" s="2">
+        <v>1.1999999999999999E-12</v>
+      </c>
+      <c r="O36">
+        <f>P36*2.35</f>
+        <v>105.75</v>
+      </c>
+      <c r="P36">
+        <v>45</v>
+      </c>
+      <c r="Q36">
+        <f>O36/M36*300000</f>
+        <v>6541.2371134020623</v>
+      </c>
+      <c r="R36">
+        <f>P36/M36*300000</f>
+        <v>2783.5051546391751</v>
+      </c>
+    </row>
+    <row r="37" spans="1:18">
+      <c r="G37" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L37" t="s">
+        <v>88</v>
+      </c>
+      <c r="M37">
+        <v>6563</v>
+      </c>
+      <c r="N37" s="2">
+        <v>2.6999999999999998E-12</v>
+      </c>
+      <c r="O37">
+        <f>P37*2.35</f>
+        <v>61.1</v>
+      </c>
+      <c r="P37">
+        <v>26</v>
+      </c>
+      <c r="Q37">
+        <f>O37/M37*300000</f>
+        <v>2792.9300624714306</v>
+      </c>
+      <c r="R37">
+        <f>P37/M37*300000</f>
+        <v>1188.4808776474172</v>
+      </c>
+    </row>
+    <row r="38" spans="1:18">
+      <c r="G38" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="L38" t="s">
+        <v>89</v>
+      </c>
+      <c r="M38">
+        <v>6548</v>
+      </c>
+      <c r="N38" s="2">
+        <v>3.6E-12</v>
+      </c>
+      <c r="O38">
+        <f>P38*2.35</f>
+        <v>117.5</v>
+      </c>
+      <c r="P38">
+        <v>50</v>
+      </c>
+      <c r="Q38">
+        <f>O38/M38*300000</f>
+        <v>5383.3231521075131</v>
+      </c>
+      <c r="R38">
+        <f>P38/M38*300000</f>
+        <v>2290.7758094074525</v>
+      </c>
+    </row>
+    <row r="39" spans="1:18">
+      <c r="A39" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="40" spans="1:18">
+      <c r="A40">
+        <v>1</v>
+      </c>
+      <c r="B40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="41" spans="1:18">
+      <c r="A41">
+        <v>2</v>
+      </c>
+      <c r="B41" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="42" spans="1:18">
+      <c r="A42">
+        <v>3</v>
+      </c>
+      <c r="B42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:18">
+      <c r="A44" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="45" spans="1:18">
+      <c r="A45">
+        <v>1</v>
+      </c>
+      <c r="B45" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="46" spans="1:18">
+      <c r="A46">
+        <v>2</v>
+      </c>
+      <c r="B46" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="47" spans="1:18">
+      <c r="A47">
+        <v>3</v>
+      </c>
+      <c r="B47" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="48" spans="1:18">
+      <c r="A48">
+        <v>4</v>
+      </c>
+      <c r="B48" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3">
+      <c r="A49">
+        <v>5</v>
+      </c>
+      <c r="B49" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3">
+      <c r="A50">
+        <v>6</v>
+      </c>
+      <c r="B50" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3">
+      <c r="C53">
+        <f>C22-B22</f>
+        <v>1182.5600000000002</v>
       </c>
     </row>
   </sheetData>

--- a/Data/FakeData/fakedata_properties.xlsx
+++ b/Data/FakeData/fakedata_properties.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23812"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="-440" windowWidth="28800" windowHeight="18000" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="26660" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1365,18 +1365,18 @@
         <v>4.0000000000000001E-13</v>
       </c>
       <c r="O15">
-        <f>P15*2.35</f>
+        <f t="shared" ref="O15:O21" si="0">P15*2.35</f>
         <v>82.25</v>
       </c>
       <c r="P15">
         <v>35</v>
       </c>
       <c r="Q15">
-        <f>O15/M15*300000</f>
+        <f t="shared" ref="Q15:Q21" si="1">O15/M15*300000</f>
         <v>5076.1160255091545</v>
       </c>
       <c r="R15">
-        <f>P15/M15*300000</f>
+        <f t="shared" ref="R15:R21" si="2">P15/M15*300000</f>
         <v>2160.0493725570868</v>
       </c>
     </row>
@@ -1394,18 +1394,18 @@
         <v>5.9999999999999997E-14</v>
       </c>
       <c r="O16">
-        <f>P16*2.35</f>
+        <f t="shared" si="0"/>
         <v>15.275</v>
       </c>
       <c r="P16">
         <v>6.5</v>
       </c>
       <c r="Q16">
-        <f>O16/M16*300000</f>
+        <f t="shared" si="1"/>
         <v>942.70726188027163</v>
       </c>
       <c r="R16">
-        <f>P16/M16*300000</f>
+        <f t="shared" si="2"/>
         <v>401.15202633203046</v>
       </c>
       <c r="T16" s="2"/>
@@ -1426,18 +1426,18 @@
         <v>2.0000000000000001E-13</v>
       </c>
       <c r="O17">
-        <f>P17*2.35</f>
+        <f t="shared" si="0"/>
         <v>15.51</v>
       </c>
       <c r="P17">
         <v>6.6</v>
       </c>
       <c r="Q17">
-        <f>O17/M17*300000</f>
+        <f t="shared" si="1"/>
         <v>938.29401088929217</v>
       </c>
       <c r="R17">
-        <f>P17/M17*300000</f>
+        <f t="shared" si="2"/>
         <v>399.27404718693282</v>
       </c>
       <c r="T17" s="2"/>
@@ -1458,18 +1458,18 @@
         <v>5.9999999999999997E-13</v>
       </c>
       <c r="O18">
-        <f>P18*2.35</f>
+        <f t="shared" si="0"/>
         <v>15.745000000000001</v>
       </c>
       <c r="P18">
         <v>6.7</v>
       </c>
       <c r="Q18">
-        <f>O18/M18*300000</f>
+        <f t="shared" si="1"/>
         <v>943.37926902336744</v>
       </c>
       <c r="R18">
-        <f>P18/M18*300000</f>
+        <f t="shared" si="2"/>
         <v>401.43798681845419</v>
       </c>
       <c r="T18" s="2"/>
@@ -1520,18 +1520,18 @@
         <v>2.0000000000000001E-13</v>
       </c>
       <c r="O19">
-        <f>P19*2.35</f>
+        <f t="shared" si="0"/>
         <v>60.395000000000003</v>
       </c>
       <c r="P19">
         <v>25.7</v>
       </c>
       <c r="Q19">
-        <f>O19/M19*300000</f>
+        <f t="shared" si="1"/>
         <v>3795.2450775031421</v>
       </c>
       <c r="R19">
-        <f>P19/M19*300000</f>
+        <f t="shared" si="2"/>
         <v>1614.9979053204859</v>
       </c>
     </row>
@@ -1549,18 +1549,18 @@
         <v>4.0000000000000001E-13</v>
       </c>
       <c r="O20">
-        <f>P20*2.35</f>
+        <f t="shared" si="0"/>
         <v>53.580000000000005</v>
       </c>
       <c r="P20">
         <v>22.8</v>
       </c>
       <c r="Q20">
-        <f>O20/M20*300000</f>
+        <f t="shared" si="1"/>
         <v>3006.1716850570415</v>
       </c>
       <c r="R20">
-        <f>P20/M20*300000</f>
+        <f t="shared" si="2"/>
         <v>1279.2219936412941</v>
       </c>
       <c r="T20" s="2"/>
@@ -1580,18 +1580,18 @@
         <v>1.1999999999999999E-12</v>
       </c>
       <c r="O21">
-        <f>P21*2.35</f>
+        <f t="shared" si="0"/>
         <v>52.875</v>
       </c>
       <c r="P21">
         <v>22.5</v>
       </c>
       <c r="Q21">
-        <f>O21/M21*300000</f>
+        <f t="shared" si="1"/>
         <v>2197.3264995151681</v>
       </c>
       <c r="R21">
-        <f>P21/M21*300000</f>
+        <f t="shared" si="2"/>
         <v>935.03255298517797</v>
       </c>
       <c r="T21" s="2"/>
@@ -1667,18 +1667,18 @@
         <v>1.6E-12</v>
       </c>
       <c r="O23">
-        <f>P23*2.35</f>
+        <f t="shared" ref="O23:O38" si="3">P23*2.35</f>
         <v>56.400000000000006</v>
       </c>
       <c r="P23">
         <v>24</v>
       </c>
       <c r="Q23">
-        <f>O23/M23*300000</f>
+        <f t="shared" ref="Q23:Q38" si="4">O23/M23*300000</f>
         <v>6624.3833685694162</v>
       </c>
       <c r="R23">
-        <f>P23/M23*300000</f>
+        <f t="shared" ref="R23:R38" si="5">P23/M23*300000</f>
         <v>2818.8865398167727</v>
       </c>
       <c r="T23" s="2"/>
@@ -1698,18 +1698,18 @@
         <v>2.8000000000000002E-12</v>
       </c>
       <c r="O24">
-        <f>P24*2.35</f>
+        <f t="shared" si="3"/>
         <v>42.300000000000004</v>
       </c>
       <c r="P24">
         <v>18</v>
       </c>
       <c r="Q24">
-        <f>O24/M24*300000</f>
+        <f t="shared" si="4"/>
         <v>4924.712822104937</v>
       </c>
       <c r="R24">
-        <f>P24/M24*300000</f>
+        <f t="shared" si="5"/>
         <v>2095.6224774914622</v>
       </c>
       <c r="T24" s="2"/>
@@ -1759,18 +1759,18 @@
         <v>9E-13</v>
       </c>
       <c r="O25">
-        <f>P25*2.35</f>
+        <f t="shared" si="3"/>
         <v>61.1</v>
       </c>
       <c r="P25">
         <v>26</v>
       </c>
       <c r="Q25">
-        <f>O25/M25*300000</f>
+        <f t="shared" si="4"/>
         <v>6554.9734475298164</v>
       </c>
       <c r="R25">
-        <f>P25/M25*300000</f>
+        <f t="shared" si="5"/>
         <v>2789.3504032041769</v>
       </c>
     </row>
@@ -1788,18 +1788,18 @@
         <v>9E-13</v>
       </c>
       <c r="O26">
-        <f>P26*2.35</f>
+        <f t="shared" si="3"/>
         <v>61.1</v>
       </c>
       <c r="P26">
         <v>26</v>
       </c>
       <c r="Q26">
-        <f>O26/M26*300000</f>
+        <f t="shared" si="4"/>
         <v>6538.1857872039891</v>
       </c>
       <c r="R26">
-        <f>P26/M26*300000</f>
+        <f t="shared" si="5"/>
         <v>2782.206717959144</v>
       </c>
       <c r="S26" s="3"/>
@@ -1849,18 +1849,18 @@
         <v>3.4000000000000001E-12</v>
       </c>
       <c r="O27">
-        <f>P27*2.35</f>
+        <f t="shared" si="3"/>
         <v>18.8</v>
       </c>
       <c r="P27">
         <v>8</v>
       </c>
       <c r="Q27">
-        <f>O27/M27*300000</f>
+        <f t="shared" si="4"/>
         <v>3641.0587475790835</v>
       </c>
       <c r="R27">
-        <f>P27/M27*300000</f>
+        <f t="shared" si="5"/>
         <v>1549.386701097482</v>
       </c>
     </row>
@@ -1878,18 +1878,18 @@
         <v>2.8000000000000002E-12</v>
       </c>
       <c r="O28">
-        <f>P28*2.35</f>
+        <f t="shared" si="3"/>
         <v>58.75</v>
       </c>
       <c r="P28">
         <v>25</v>
       </c>
       <c r="Q28">
-        <f>O28/M28*300000</f>
+        <f t="shared" si="4"/>
         <v>11482.084690553747</v>
       </c>
       <c r="R28">
-        <f>P28/M28*300000</f>
+        <f t="shared" si="5"/>
         <v>4885.99348534202</v>
       </c>
     </row>
@@ -1907,18 +1907,18 @@
         <v>4.0000000000000001E-13</v>
       </c>
       <c r="O29">
-        <f>P29*2.35</f>
+        <f t="shared" si="3"/>
         <v>14.100000000000001</v>
       </c>
       <c r="P29">
         <v>6</v>
       </c>
       <c r="Q29">
-        <f>O29/M29*300000</f>
+        <f t="shared" si="4"/>
         <v>2579.268292682927</v>
       </c>
       <c r="R29">
-        <f>P29/M29*300000</f>
+        <f t="shared" si="5"/>
         <v>1097.5609756097563</v>
       </c>
     </row>
@@ -1936,18 +1936,18 @@
         <v>1.6E-12</v>
       </c>
       <c r="O30">
-        <f>P30*2.35</f>
+        <f t="shared" si="3"/>
         <v>65.8</v>
       </c>
       <c r="P30">
         <v>28</v>
       </c>
       <c r="Q30">
-        <f>O30/M30*300000</f>
+        <f t="shared" si="4"/>
         <v>12155.172413793103</v>
       </c>
       <c r="R30">
-        <f>P30/M30*300000</f>
+        <f t="shared" si="5"/>
         <v>5172.4137931034484</v>
       </c>
     </row>
@@ -1965,18 +1965,18 @@
         <v>1.5000000000000001E-12</v>
       </c>
       <c r="O31">
-        <f>P31*2.35</f>
+        <f t="shared" si="3"/>
         <v>42.300000000000004</v>
       </c>
       <c r="P31">
         <v>18</v>
       </c>
       <c r="Q31">
-        <f>O31/M31*300000</f>
+        <f t="shared" si="4"/>
         <v>4538.0585405975653</v>
       </c>
       <c r="R31">
-        <f>P31/M31*300000</f>
+        <f t="shared" si="5"/>
         <v>1931.0887406798147</v>
       </c>
     </row>
@@ -1994,18 +1994,18 @@
         <v>1.5000000000000001E-12</v>
       </c>
       <c r="O32">
-        <f>P32*2.35</f>
+        <f t="shared" si="3"/>
         <v>42.300000000000004</v>
       </c>
       <c r="P32">
         <v>18</v>
       </c>
       <c r="Q32">
-        <f>O32/M32*300000</f>
+        <f t="shared" si="4"/>
         <v>4526.4363142181464</v>
       </c>
       <c r="R32">
-        <f>P32/M32*300000</f>
+        <f t="shared" si="5"/>
         <v>1926.1431124332537</v>
       </c>
     </row>
@@ -2023,18 +2023,18 @@
         <v>1.3E-13</v>
       </c>
       <c r="O33">
-        <f>P33*2.35</f>
+        <f t="shared" si="3"/>
         <v>39.950000000000003</v>
       </c>
       <c r="P33">
         <v>17</v>
       </c>
       <c r="Q33">
-        <f>O33/M33*300000</f>
+        <f t="shared" si="4"/>
         <v>2557.6184379001284</v>
       </c>
       <c r="R33">
-        <f>P33/M33*300000</f>
+        <f t="shared" si="5"/>
         <v>1088.348271446863</v>
       </c>
     </row>
@@ -2052,18 +2052,18 @@
         <v>5.2999999999999996E-13</v>
       </c>
       <c r="O34">
-        <f>P34*2.35</f>
+        <f t="shared" si="3"/>
         <v>188</v>
       </c>
       <c r="P34">
         <v>80</v>
       </c>
       <c r="Q34">
-        <f>O34/M34*300000</f>
+        <f t="shared" si="4"/>
         <v>12155.172413793103</v>
       </c>
       <c r="R34">
-        <f>P34/M34*300000</f>
+        <f t="shared" si="5"/>
         <v>5172.4137931034484</v>
       </c>
     </row>
@@ -2081,18 +2081,18 @@
         <v>9E-13</v>
       </c>
       <c r="O35">
-        <f>P35*2.35</f>
+        <f t="shared" si="3"/>
         <v>47</v>
       </c>
       <c r="P35">
         <v>20</v>
       </c>
       <c r="Q35">
-        <f>O35/M35*300000</f>
+        <f t="shared" si="4"/>
         <v>2900.6377288623739</v>
       </c>
       <c r="R35">
-        <f>P35/M35*300000</f>
+        <f t="shared" si="5"/>
         <v>1234.3139271754783</v>
       </c>
     </row>
@@ -2110,18 +2110,18 @@
         <v>1.1999999999999999E-12</v>
       </c>
       <c r="O36">
-        <f>P36*2.35</f>
+        <f t="shared" si="3"/>
         <v>105.75</v>
       </c>
       <c r="P36">
         <v>45</v>
       </c>
       <c r="Q36">
-        <f>O36/M36*300000</f>
+        <f t="shared" si="4"/>
         <v>6541.2371134020623</v>
       </c>
       <c r="R36">
-        <f>P36/M36*300000</f>
+        <f t="shared" si="5"/>
         <v>2783.5051546391751</v>
       </c>
     </row>
@@ -2139,18 +2139,18 @@
         <v>2.6999999999999998E-12</v>
       </c>
       <c r="O37">
-        <f>P37*2.35</f>
+        <f t="shared" si="3"/>
         <v>61.1</v>
       </c>
       <c r="P37">
         <v>26</v>
       </c>
       <c r="Q37">
-        <f>O37/M37*300000</f>
+        <f t="shared" si="4"/>
         <v>2792.9300624714306</v>
       </c>
       <c r="R37">
-        <f>P37/M37*300000</f>
+        <f t="shared" si="5"/>
         <v>1188.4808776474172</v>
       </c>
     </row>
@@ -2168,18 +2168,18 @@
         <v>3.6E-12</v>
       </c>
       <c r="O38">
-        <f>P38*2.35</f>
+        <f t="shared" si="3"/>
         <v>117.5</v>
       </c>
       <c r="P38">
         <v>50</v>
       </c>
       <c r="Q38">
-        <f>O38/M38*300000</f>
+        <f t="shared" si="4"/>
         <v>5383.3231521075131</v>
       </c>
       <c r="R38">
-        <f>P38/M38*300000</f>
+        <f t="shared" si="5"/>
         <v>2290.7758094074525</v>
       </c>
     </row>

--- a/Data/FakeData/fakedata_properties.xlsx
+++ b/Data/FakeData/fakedata_properties.xlsx
@@ -1,13 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="23812"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="24030"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="51200" windowHeight="26660" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="35540" windowHeight="22800" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="140000" concurrentCalc="0"/>
   <extLst>
@@ -19,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="134" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="579" uniqueCount="259">
   <si>
     <t>Details of Fake Data</t>
   </si>
@@ -289,6 +290,513 @@
   </si>
   <si>
     <t>Halpha broad</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>FeII Components/</t>
+  </si>
+  <si>
+    <t>normalization</t>
+  </si>
+  <si>
+    <t>Opt/UV scaling</t>
+  </si>
+  <si>
+    <t>Final broadening [km/s]</t>
+  </si>
+  <si>
+    <t>fakeFe1_deg.dat</t>
+  </si>
+  <si>
+    <t>fakeFe6_deg.dat</t>
+  </si>
+  <si>
+    <t>fakeFe5_deg.dat</t>
+  </si>
+  <si>
+    <t>fakeFe2_deg.dat</t>
+  </si>
+  <si>
+    <t>fakeFe3_deg.dat</t>
+  </si>
+  <si>
+    <t>fakeFe4_deg.dat</t>
+  </si>
+  <si>
+    <t>wave end[A]</t>
+  </si>
+  <si>
+    <t>wave start[A}</t>
+  </si>
+  <si>
+    <t>A/pix (@rest)</t>
+  </si>
+  <si>
+    <t>restframe</t>
+  </si>
+  <si>
+    <t>* Dispersion (A/pix) listed is that applied before spectrum was redshifted to the redshift listed</t>
+  </si>
+  <si>
+    <t>* Full wavelength range is provided, allowing testers to generate more test data by extracting sub-regions to their liking</t>
+  </si>
+  <si>
+    <t>* Opt/UV scaling is only useful information for the creator</t>
+  </si>
+  <si>
+    <t>BalmerContinuum/</t>
+  </si>
+  <si>
+    <t>wave start(A)</t>
+  </si>
+  <si>
+    <t>wave end(A)</t>
+  </si>
+  <si>
+    <t>broadening [km/s]</t>
+  </si>
+  <si>
+    <t>BaC normalization</t>
+  </si>
+  <si>
+    <t>BalmerCont+Lines/</t>
+  </si>
+  <si>
+    <t>FakeBac_lines01_deg.dat</t>
+  </si>
+  <si>
+    <t>FakeBac08_deg.dat</t>
+  </si>
+  <si>
+    <t>FakeBac09_deg.dat</t>
+  </si>
+  <si>
+    <t>FakeBac10_deg.dat</t>
+  </si>
+  <si>
+    <t>FakeBac12_deg.dat</t>
+  </si>
+  <si>
+    <t>FakeBac13_deg.dat</t>
+  </si>
+  <si>
+    <t>FakeBac14_deg.dat</t>
+  </si>
+  <si>
+    <t>FakeBac11_deg.dat</t>
+  </si>
+  <si>
+    <t>FakeBac07_deg.dat</t>
+  </si>
+  <si>
+    <t>FakeBac01_deg.dat</t>
+  </si>
+  <si>
+    <t>FakeBac02_deg.dat</t>
+  </si>
+  <si>
+    <t>FakeBac03_deg.dat</t>
+  </si>
+  <si>
+    <t>FakeBac04_deg.dat</t>
+  </si>
+  <si>
+    <t>FakeBac05_deg.dat</t>
+  </si>
+  <si>
+    <t>FakeBac06_deg.dat</t>
+  </si>
+  <si>
+    <t>FakeBac_lines02_deg.dat</t>
+  </si>
+  <si>
+    <t>FakeBac_lines03_deg.dat</t>
+  </si>
+  <si>
+    <t>FakeBac_lines04_deg.dat</t>
+  </si>
+  <si>
+    <t>FakeBac_lines05_deg.dat</t>
+  </si>
+  <si>
+    <t>FakeBac_lines06_deg.dat</t>
+  </si>
+  <si>
+    <t>FakeBac_lines07_deg.dat</t>
+  </si>
+  <si>
+    <t>FakeBac_lines08_deg.dat</t>
+  </si>
+  <si>
+    <t>FakeBac_lines09_deg.dat</t>
+  </si>
+  <si>
+    <t>FakeBac_lines10_deg.dat</t>
+  </si>
+  <si>
+    <t>FakeBac_lines11_deg.dat</t>
+  </si>
+  <si>
+    <t>FakeBac_lines12_deg.dat</t>
+  </si>
+  <si>
+    <t>FakeBac_lines13_deg.dat</t>
+  </si>
+  <si>
+    <t>T_e</t>
+  </si>
+  <si>
+    <t>tau_be</t>
+  </si>
+  <si>
+    <t>Hb-ampl</t>
+  </si>
+  <si>
+    <t>2200-2500</t>
+  </si>
+  <si>
+    <t>S/N in lambda-rest range</t>
+  </si>
+  <si>
+    <t>S/N in lambda(rest) range</t>
+  </si>
+  <si>
+    <t>2800-3500</t>
+  </si>
+  <si>
+    <t>"1"</t>
+  </si>
+  <si>
+    <t>exit</t>
+  </si>
+  <si>
+    <t>Host_Galaxy</t>
+  </si>
+  <si>
+    <t>7700-7800</t>
+  </si>
+  <si>
+    <t>S/N range (pretruncated)</t>
+  </si>
+  <si>
+    <t>elliptical1_werr.dat</t>
+  </si>
+  <si>
+    <t>elliptical2_werr.dat</t>
+  </si>
+  <si>
+    <t>elliptical3_werr.dat</t>
+  </si>
+  <si>
+    <t>elliptical4_werr.dat</t>
+  </si>
+  <si>
+    <t>elliptical5_werr.dat</t>
+  </si>
+  <si>
+    <t>elliptical6_werr.dat</t>
+  </si>
+  <si>
+    <t>s04_werr.dat</t>
+  </si>
+  <si>
+    <t>s03_werr.dat</t>
+  </si>
+  <si>
+    <t>s02_werr.dat</t>
+  </si>
+  <si>
+    <t>s01_werr.dat</t>
+  </si>
+  <si>
+    <t>s05_werr.dat</t>
+  </si>
+  <si>
+    <t>s06_werr.dat</t>
+  </si>
+  <si>
+    <t>sa1_werr.dat</t>
+  </si>
+  <si>
+    <t>sa2_werr.dat</t>
+  </si>
+  <si>
+    <t>sa3_werr.dat</t>
+  </si>
+  <si>
+    <t>sa4_werr.dat</t>
+  </si>
+  <si>
+    <t>sa5_werr.dat</t>
+  </si>
+  <si>
+    <t>sa6_werr.dat</t>
+  </si>
+  <si>
+    <t>sb1_werr.dat</t>
+  </si>
+  <si>
+    <t>sb2_werr.dat</t>
+  </si>
+  <si>
+    <t>sb3_werr.dat</t>
+  </si>
+  <si>
+    <t>sb4_werr.dat</t>
+  </si>
+  <si>
+    <t>sb5_werr.dat</t>
+  </si>
+  <si>
+    <t>sb6_werr.dat</t>
+  </si>
+  <si>
+    <t>starb1_2_werr.dat</t>
+  </si>
+  <si>
+    <t>starb1_1_werr.dat</t>
+  </si>
+  <si>
+    <t>starb1_3_werr.dat</t>
+  </si>
+  <si>
+    <t>starb1_4_werr.dat</t>
+  </si>
+  <si>
+    <t>starb1_5_werr.dat</t>
+  </si>
+  <si>
+    <t>starb1_6_werr.dat</t>
+  </si>
+  <si>
+    <t>starb2_1_werr.dat</t>
+  </si>
+  <si>
+    <t>starb2_2_werr.dat</t>
+  </si>
+  <si>
+    <t>starb3_3_werr.dat</t>
+  </si>
+  <si>
+    <t>starb4_4_werr.dat</t>
+  </si>
+  <si>
+    <t>starb5_5_werr.dat</t>
+  </si>
+  <si>
+    <t>starb2_6_werr.dat</t>
+  </si>
+  <si>
+    <t>starb2_3_werr.dat</t>
+  </si>
+  <si>
+    <t>starb2_4_werr.dat</t>
+  </si>
+  <si>
+    <t>starb2_5_werr.dat</t>
+  </si>
+  <si>
+    <t>starb3_1_werr.dat</t>
+  </si>
+  <si>
+    <t>starb3_2_werr.dat</t>
+  </si>
+  <si>
+    <t>starb3_4_werr.dat</t>
+  </si>
+  <si>
+    <t>starb3_5_werr.dat</t>
+  </si>
+  <si>
+    <t>starb3_6_werr.dat</t>
+  </si>
+  <si>
+    <t>starb4_1_werr.dat</t>
+  </si>
+  <si>
+    <t>starb4_2_werr.dat</t>
+  </si>
+  <si>
+    <t>starb4_3_werr.dat</t>
+  </si>
+  <si>
+    <t>starb4_5_werr.dat</t>
+  </si>
+  <si>
+    <t>starb4_6_werr.dat</t>
+  </si>
+  <si>
+    <t>starb5_1_werr.dat</t>
+  </si>
+  <si>
+    <t>starb5_2_werr.dat</t>
+  </si>
+  <si>
+    <t>starb5_3_werr.dat</t>
+  </si>
+  <si>
+    <t>starb5_4_werr.dat</t>
+  </si>
+  <si>
+    <t>starb5_6_werr.dat</t>
+  </si>
+  <si>
+    <t>starb6_1_werr.dat</t>
+  </si>
+  <si>
+    <t>starb6_2_werr.dat</t>
+  </si>
+  <si>
+    <t>starb6_3_werr.dat</t>
+  </si>
+  <si>
+    <t>starb6_4_werr.dat</t>
+  </si>
+  <si>
+    <t>starb6_5_werr.dat</t>
+  </si>
+  <si>
+    <t>starb6_6_werr.dat</t>
+  </si>
+  <si>
+    <t>age139_m42</t>
+  </si>
+  <si>
+    <t>age150_m42</t>
+  </si>
+  <si>
+    <t>age161_m42</t>
+  </si>
+  <si>
+    <t>age185_m42</t>
+  </si>
+  <si>
+    <t>age193_m42</t>
+  </si>
+  <si>
+    <t>age116_m62</t>
+  </si>
+  <si>
+    <t>age125_m62</t>
+  </si>
+  <si>
+    <t>age132_m62</t>
+  </si>
+  <si>
+    <t>age135_m62</t>
+  </si>
+  <si>
+    <t>age139_m62</t>
+  </si>
+  <si>
+    <t>age150_m62</t>
+  </si>
+  <si>
+    <t>age161_m62</t>
+  </si>
+  <si>
+    <t>age020_m72</t>
+  </si>
+  <si>
+    <t>age045_m72</t>
+  </si>
+  <si>
+    <t>age055_m72</t>
+  </si>
+  <si>
+    <t>age070_m72</t>
+  </si>
+  <si>
+    <t>age090_m72</t>
+  </si>
+  <si>
+    <t>age104_m72</t>
+  </si>
+  <si>
+    <t>age116_m72</t>
+  </si>
+  <si>
+    <t>age125_m72</t>
+  </si>
+  <si>
+    <t>age132_m72</t>
+  </si>
+  <si>
+    <t>age135_m72</t>
+  </si>
+  <si>
+    <t>age139_m72</t>
+  </si>
+  <si>
+    <t>age150_m72</t>
+  </si>
+  <si>
+    <t>age185_m72</t>
+  </si>
+  <si>
+    <t>age193_m72</t>
+  </si>
+  <si>
+    <t>bulge1_werr.dat</t>
+  </si>
+  <si>
+    <t>6700-6800</t>
+  </si>
+  <si>
+    <t>bulge4_werr.dat</t>
+  </si>
+  <si>
+    <t>bulge5_werr.dat</t>
+  </si>
+  <si>
+    <t>bulge3_werr.dat</t>
+  </si>
+  <si>
+    <t>bulge2_werr.dat</t>
+  </si>
+  <si>
+    <t>bulge6_werr.dat</t>
+  </si>
+  <si>
+    <t>sc1_werr.dat</t>
+  </si>
+  <si>
+    <t>sc2_werr.dat</t>
+  </si>
+  <si>
+    <t>sc3_werr.dat</t>
+  </si>
+  <si>
+    <t>sc4_werr.dat</t>
+  </si>
+  <si>
+    <t>sc5_werr.dat</t>
+  </si>
+  <si>
+    <t>sc6_werr.dat</t>
+  </si>
+  <si>
+    <t>STARLIGHT Bulge Components Used (Applicable to all 6 fake spectra of each type)</t>
+  </si>
+  <si>
+    <t>Fake spectrum name</t>
+  </si>
+  <si>
+    <t>Mcor_j(%)</t>
+  </si>
+  <si>
+    <t>component_j</t>
+  </si>
+  <si>
+    <t>Host Galaxy Component Notes:</t>
+  </si>
+  <si>
+    <t>There are 12 different host galaxy templates above, each formatted to match the 6 different templates I used for the power law continuum and emission line spectra for each combining later on.  The only exception is for template 6 for all host galaxies because the host galaxy data never went past 9800A.  Also for the bulge and sc galaxy, the data didn't go past 7500A, so templates 3 and 6 must be truncated at 7500A</t>
+  </si>
+  <si>
+    <t>All detailed info about the Bruzual &amp; Charlot models that went to fit each host galaxy template are in the subdirectory Host_comp/templates/*.starlight  but I have included Mcor_j(%) and component_j for each, just to show what kind of numbers of models were needed to fit each host and with what fractional contributions (Mcor_j's will add to 1.0 for a given galaxy type).  You can see that STARLIGHT took between 2 and 12 models co-added to fit the Kinney spectra, while Kevin allowed up to 29 models in each run.</t>
   </si>
 </sst>
 </file>
@@ -351,7 +859,7 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="121">
+  <cellStyleXfs count="229">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
@@ -473,15 +981,129 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="121">
+  <cellStyles count="229">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
@@ -542,6 +1164,60 @@
     <cellStyle name="Followed Hyperlink" xfId="116" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="118" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="120" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="122" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="124" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="126" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="128" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="130" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="132" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="134" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="136" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="138" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="140" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="142" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="144" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="146" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="148" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="150" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="152" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="154" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="156" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="158" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="160" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="162" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="164" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="166" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="168" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="170" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="172" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="174" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="176" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="178" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="180" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="182" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="184" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="186" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="188" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="190" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="192" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="194" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="196" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="198" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="200" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="202" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="204" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="206" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="208" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="210" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="212" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="214" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="216" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="218" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="220" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="222" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="224" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="226" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="228" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
@@ -602,6 +1278,60 @@
     <cellStyle name="Hyperlink" xfId="115" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="117" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="119" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="121" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="123" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="125" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="127" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="129" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="131" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="133" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="135" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="137" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="139" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="141" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="143" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="145" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="147" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="149" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="151" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="153" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="155" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="157" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="159" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="161" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="163" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="165" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="167" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="169" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="171" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="173" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="175" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="177" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="179" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="181" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="183" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="185" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="187" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="189" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="191" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="193" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="195" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="197" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="199" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="201" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="203" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="205" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="207" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="209" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="211" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="213" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="215" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="217" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="219" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="221" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="223" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="225" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="227" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -931,17 +1661,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF53"/>
+  <dimension ref="A1:AF186"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K11" sqref="K11"/>
+    <sheetView tabSelected="1" topLeftCell="A172" zoomScale="150" zoomScaleNormal="150" zoomScalePageLayoutView="150" workbookViewId="0">
+      <selection activeCell="C188" sqref="C188"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <cols>
     <col min="1" max="1" width="19.83203125" customWidth="1"/>
+    <col min="2" max="2" width="12.6640625" customWidth="1"/>
+    <col min="3" max="3" width="12.83203125" customWidth="1"/>
     <col min="4" max="4" width="10" customWidth="1"/>
-    <col min="5" max="5" width="6.33203125" customWidth="1"/>
+    <col min="5" max="5" width="9.5" customWidth="1"/>
     <col min="6" max="6" width="18.1640625" customWidth="1"/>
     <col min="7" max="7" width="21.1640625" customWidth="1"/>
     <col min="8" max="8" width="15" customWidth="1"/>
@@ -2249,7 +2981,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:3">
+    <row r="49" spans="1:11">
       <c r="A49">
         <v>5</v>
       </c>
@@ -2257,7 +2989,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="50" spans="1:3">
+    <row r="50" spans="1:11">
       <c r="A50">
         <v>6</v>
       </c>
@@ -2265,11 +2997,3820 @@
         <v>45</v>
       </c>
     </row>
-    <row r="53" spans="1:3">
-      <c r="C53">
-        <f>C22-B22</f>
-        <v>1182.5600000000002</v>
-      </c>
+    <row r="52" spans="1:11">
+      <c r="E52" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11">
+      <c r="A53" t="s">
+        <v>91</v>
+      </c>
+      <c r="B53" t="s">
+        <v>102</v>
+      </c>
+      <c r="C53" t="s">
+        <v>101</v>
+      </c>
+      <c r="D53" t="s">
+        <v>5</v>
+      </c>
+      <c r="E53" t="s">
+        <v>103</v>
+      </c>
+      <c r="F53" t="s">
+        <v>24</v>
+      </c>
+      <c r="G53" t="s">
+        <v>94</v>
+      </c>
+      <c r="H53" t="s">
+        <v>93</v>
+      </c>
+      <c r="I53" t="s">
+        <v>10</v>
+      </c>
+      <c r="J53" t="s">
+        <v>145</v>
+      </c>
+      <c r="K53" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11">
+      <c r="A54" t="s">
+        <v>95</v>
+      </c>
+      <c r="B54">
+        <v>1650</v>
+      </c>
+      <c r="C54">
+        <v>12000</v>
+      </c>
+      <c r="D54" t="s">
+        <v>6</v>
+      </c>
+      <c r="E54">
+        <v>0.5</v>
+      </c>
+      <c r="F54">
+        <v>0.5</v>
+      </c>
+      <c r="G54">
+        <v>1500</v>
+      </c>
+      <c r="H54">
+        <v>3</v>
+      </c>
+      <c r="I54">
+        <v>26</v>
+      </c>
+      <c r="J54" t="s">
+        <v>144</v>
+      </c>
+      <c r="K54" s="2">
+        <v>2.9999999999999998E-15</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11">
+      <c r="A55" t="s">
+        <v>98</v>
+      </c>
+      <c r="B55">
+        <v>2580</v>
+      </c>
+      <c r="C55">
+        <v>18764</v>
+      </c>
+      <c r="D55" t="s">
+        <v>6</v>
+      </c>
+      <c r="E55">
+        <v>0.13900000000000001</v>
+      </c>
+      <c r="F55">
+        <v>1.3455999999999999</v>
+      </c>
+      <c r="G55">
+        <v>2358</v>
+      </c>
+      <c r="H55">
+        <v>4.2</v>
+      </c>
+      <c r="I55">
+        <v>29</v>
+      </c>
+      <c r="J55" t="s">
+        <v>144</v>
+      </c>
+      <c r="K55" s="2">
+        <v>2.4300000000000001E-14</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11">
+      <c r="A56" t="s">
+        <v>99</v>
+      </c>
+      <c r="B56">
+        <v>1413</v>
+      </c>
+      <c r="C56">
+        <v>10274</v>
+      </c>
+      <c r="D56" t="s">
+        <v>6</v>
+      </c>
+      <c r="E56">
+        <v>0.73</v>
+      </c>
+      <c r="F56">
+        <v>0.28438999999999998</v>
+      </c>
+      <c r="G56">
+        <v>7021</v>
+      </c>
+      <c r="H56">
+        <v>2.9540000000000002</v>
+      </c>
+      <c r="I56">
+        <v>30</v>
+      </c>
+      <c r="J56" t="s">
+        <v>144</v>
+      </c>
+      <c r="K56" s="2">
+        <v>4.8700000000000005E-13</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11">
+      <c r="A57" t="s">
+        <v>100</v>
+      </c>
+      <c r="B57">
+        <v>3116</v>
+      </c>
+      <c r="C57">
+        <v>22655</v>
+      </c>
+      <c r="D57" t="s">
+        <v>6</v>
+      </c>
+      <c r="E57">
+        <v>1.29</v>
+      </c>
+      <c r="F57">
+        <v>1.8327</v>
+      </c>
+      <c r="G57">
+        <v>4839</v>
+      </c>
+      <c r="H57">
+        <v>5.23</v>
+      </c>
+      <c r="I57">
+        <v>46</v>
+      </c>
+      <c r="J57" t="s">
+        <v>144</v>
+      </c>
+      <c r="K57" s="2">
+        <v>7.7999999999999995E-16</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11">
+      <c r="A58" t="s">
+        <v>97</v>
+      </c>
+      <c r="B58">
+        <v>3842</v>
+      </c>
+      <c r="C58">
+        <v>27934</v>
+      </c>
+      <c r="D58" t="s">
+        <v>6</v>
+      </c>
+      <c r="E58">
+        <v>1.49</v>
+      </c>
+      <c r="F58">
+        <v>2.4929999999999999</v>
+      </c>
+      <c r="G58">
+        <v>1033</v>
+      </c>
+      <c r="H58">
+        <v>2.5</v>
+      </c>
+      <c r="I58">
+        <v>17</v>
+      </c>
+      <c r="J58" t="s">
+        <v>144</v>
+      </c>
+      <c r="K58" s="2">
+        <v>2.9000000000000003E-17</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11">
+      <c r="A59" t="s">
+        <v>96</v>
+      </c>
+      <c r="B59">
+        <v>4103</v>
+      </c>
+      <c r="C59">
+        <v>29837</v>
+      </c>
+      <c r="D59" t="s">
+        <v>6</v>
+      </c>
+      <c r="E59">
+        <v>0.63</v>
+      </c>
+      <c r="F59">
+        <v>2.73</v>
+      </c>
+      <c r="G59">
+        <v>6239</v>
+      </c>
+      <c r="H59">
+        <v>1.5</v>
+      </c>
+      <c r="I59">
+        <v>42</v>
+      </c>
+      <c r="J59" t="s">
+        <v>144</v>
+      </c>
+      <c r="K59" s="2">
+        <v>4.2E-18</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11">
+      <c r="A61" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11">
+      <c r="A62" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11">
+      <c r="A63" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11">
+      <c r="E64" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" t="s">
+        <v>108</v>
+      </c>
+      <c r="B65" t="s">
+        <v>109</v>
+      </c>
+      <c r="C65" t="s">
+        <v>110</v>
+      </c>
+      <c r="D65" t="s">
+        <v>5</v>
+      </c>
+      <c r="E65" t="s">
+        <v>64</v>
+      </c>
+      <c r="F65" t="s">
+        <v>24</v>
+      </c>
+      <c r="G65" t="s">
+        <v>111</v>
+      </c>
+      <c r="H65" t="s">
+        <v>112</v>
+      </c>
+      <c r="I65" t="s">
+        <v>10</v>
+      </c>
+      <c r="J65" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" t="s">
+        <v>123</v>
+      </c>
+      <c r="B66">
+        <v>500</v>
+      </c>
+      <c r="C66">
+        <v>7999.5</v>
+      </c>
+      <c r="D66" t="s">
+        <v>6</v>
+      </c>
+      <c r="E66">
+        <v>0.5</v>
+      </c>
+      <c r="F66">
+        <v>0</v>
+      </c>
+      <c r="G66">
+        <v>100</v>
+      </c>
+      <c r="H66">
+        <v>6</v>
+      </c>
+      <c r="I66">
+        <v>25</v>
+      </c>
+      <c r="J66" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" t="s">
+        <v>124</v>
+      </c>
+      <c r="B67">
+        <v>650</v>
+      </c>
+      <c r="C67">
+        <v>10400</v>
+      </c>
+      <c r="D67" t="s">
+        <v>6</v>
+      </c>
+      <c r="E67">
+        <v>0.125</v>
+      </c>
+      <c r="F67">
+        <v>0.3</v>
+      </c>
+      <c r="G67">
+        <v>1000</v>
+      </c>
+      <c r="H67">
+        <v>6</v>
+      </c>
+      <c r="I67">
+        <v>74</v>
+      </c>
+      <c r="J67" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" t="s">
+        <v>125</v>
+      </c>
+      <c r="B68">
+        <v>616</v>
+      </c>
+      <c r="C68">
+        <v>9855</v>
+      </c>
+      <c r="D68" t="s">
+        <v>6</v>
+      </c>
+      <c r="E68">
+        <v>0.5</v>
+      </c>
+      <c r="F68">
+        <v>0.23200000000000001</v>
+      </c>
+      <c r="G68">
+        <v>8200</v>
+      </c>
+      <c r="H68">
+        <v>6</v>
+      </c>
+      <c r="I68">
+        <v>35</v>
+      </c>
+      <c r="J68" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" t="s">
+        <v>126</v>
+      </c>
+      <c r="B69">
+        <v>190</v>
+      </c>
+      <c r="C69">
+        <v>15200</v>
+      </c>
+      <c r="D69" t="s">
+        <v>6</v>
+      </c>
+      <c r="E69">
+        <v>0.5</v>
+      </c>
+      <c r="F69">
+        <v>0.9</v>
+      </c>
+      <c r="G69">
+        <v>700</v>
+      </c>
+      <c r="H69">
+        <v>3</v>
+      </c>
+      <c r="I69">
+        <v>62</v>
+      </c>
+      <c r="J69" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" t="s">
+        <v>127</v>
+      </c>
+      <c r="B70">
+        <v>550</v>
+      </c>
+      <c r="C70">
+        <v>8800</v>
+      </c>
+      <c r="D70" t="s">
+        <v>6</v>
+      </c>
+      <c r="E70">
+        <v>0.05</v>
+      </c>
+      <c r="F70">
+        <v>0.1</v>
+      </c>
+      <c r="G70">
+        <v>5000</v>
+      </c>
+      <c r="H70">
+        <v>6</v>
+      </c>
+      <c r="I70" t="s">
+        <v>148</v>
+      </c>
+      <c r="J70" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" t="s">
+        <v>128</v>
+      </c>
+      <c r="B71">
+        <v>500</v>
+      </c>
+      <c r="C71">
+        <v>7999.5</v>
+      </c>
+      <c r="D71" t="s">
+        <v>6</v>
+      </c>
+      <c r="E71">
+        <v>0.5</v>
+      </c>
+      <c r="F71">
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <v>1000</v>
+      </c>
+      <c r="H71">
+        <v>6</v>
+      </c>
+      <c r="I71">
+        <v>15</v>
+      </c>
+      <c r="J71" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" t="s">
+        <v>122</v>
+      </c>
+      <c r="B72">
+        <v>1054</v>
+      </c>
+      <c r="C72">
+        <v>16872</v>
+      </c>
+      <c r="D72" t="s">
+        <v>6</v>
+      </c>
+      <c r="E72">
+        <v>0.25</v>
+      </c>
+      <c r="F72">
+        <v>1.109</v>
+      </c>
+      <c r="G72">
+        <v>9910</v>
+      </c>
+      <c r="H72">
+        <v>4</v>
+      </c>
+      <c r="I72">
+        <v>29</v>
+      </c>
+      <c r="J72" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" t="s">
+        <v>115</v>
+      </c>
+      <c r="B73">
+        <v>810</v>
+      </c>
+      <c r="C73">
+        <v>12958</v>
+      </c>
+      <c r="D73" t="s">
+        <v>6</v>
+      </c>
+      <c r="E73">
+        <v>1.5</v>
+      </c>
+      <c r="F73">
+        <v>0.62</v>
+      </c>
+      <c r="G73">
+        <v>6000</v>
+      </c>
+      <c r="H73">
+        <v>3</v>
+      </c>
+      <c r="I73">
+        <v>27</v>
+      </c>
+      <c r="J73" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" t="s">
+        <v>116</v>
+      </c>
+      <c r="B74">
+        <v>550</v>
+      </c>
+      <c r="C74">
+        <v>8799</v>
+      </c>
+      <c r="D74" t="s">
+        <v>6</v>
+      </c>
+      <c r="E74">
+        <v>0.75</v>
+      </c>
+      <c r="F74">
+        <v>0.1</v>
+      </c>
+      <c r="G74">
+        <v>3500</v>
+      </c>
+      <c r="H74">
+        <v>3</v>
+      </c>
+      <c r="I74">
+        <v>19</v>
+      </c>
+      <c r="J74" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" t="s">
+        <v>117</v>
+      </c>
+      <c r="B75">
+        <v>1250</v>
+      </c>
+      <c r="C75">
+        <v>20000</v>
+      </c>
+      <c r="D75" t="s">
+        <v>6</v>
+      </c>
+      <c r="E75">
+        <v>0.05</v>
+      </c>
+      <c r="F75">
+        <v>1.5</v>
+      </c>
+      <c r="G75">
+        <v>1000</v>
+      </c>
+      <c r="H75">
+        <v>6</v>
+      </c>
+      <c r="I75" t="s">
+        <v>148</v>
+      </c>
+      <c r="J75" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" t="s">
+        <v>121</v>
+      </c>
+      <c r="B76">
+        <v>1054</v>
+      </c>
+      <c r="C76">
+        <v>16872</v>
+      </c>
+      <c r="D76" t="s">
+        <v>6</v>
+      </c>
+      <c r="E76">
+        <v>0.25</v>
+      </c>
+      <c r="F76">
+        <v>1.109</v>
+      </c>
+      <c r="G76">
+        <v>1910</v>
+      </c>
+      <c r="H76">
+        <v>4</v>
+      </c>
+      <c r="I76">
+        <v>68</v>
+      </c>
+      <c r="J76" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" t="s">
+        <v>118</v>
+      </c>
+      <c r="B77">
+        <v>1725</v>
+      </c>
+      <c r="C77">
+        <v>27597</v>
+      </c>
+      <c r="D77" t="s">
+        <v>6</v>
+      </c>
+      <c r="E77">
+        <v>0.65</v>
+      </c>
+      <c r="F77">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="G77">
+        <v>4500</v>
+      </c>
+      <c r="H77">
+        <v>4</v>
+      </c>
+      <c r="I77">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" t="s">
+        <v>119</v>
+      </c>
+      <c r="B78">
+        <v>650</v>
+      </c>
+      <c r="C78">
+        <v>10400</v>
+      </c>
+      <c r="D78" t="s">
+        <v>6</v>
+      </c>
+      <c r="E78">
+        <v>0.125</v>
+      </c>
+      <c r="F78">
+        <v>0.3</v>
+      </c>
+      <c r="G78">
+        <v>9000</v>
+      </c>
+      <c r="H78">
+        <v>6</v>
+      </c>
+      <c r="I78">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" t="s">
+        <v>120</v>
+      </c>
+      <c r="B79">
+        <v>190</v>
+      </c>
+      <c r="C79">
+        <v>15200</v>
+      </c>
+      <c r="D79" t="s">
+        <v>6</v>
+      </c>
+      <c r="E79">
+        <v>0.5</v>
+      </c>
+      <c r="F79">
+        <v>0.9</v>
+      </c>
+      <c r="G79">
+        <v>5000</v>
+      </c>
+      <c r="H79">
+        <v>3</v>
+      </c>
+      <c r="I79">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="82" spans="1:12">
+      <c r="A82" t="s">
+        <v>113</v>
+      </c>
+      <c r="H82" t="s">
+        <v>141</v>
+      </c>
+      <c r="I82" t="s">
+        <v>142</v>
+      </c>
+      <c r="J82" t="s">
+        <v>143</v>
+      </c>
+      <c r="K82" t="s">
+        <v>10</v>
+      </c>
+      <c r="L82" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="83" spans="1:12">
+      <c r="A83" t="s">
+        <v>114</v>
+      </c>
+      <c r="B83">
+        <v>500</v>
+      </c>
+      <c r="C83">
+        <v>7999.5</v>
+      </c>
+      <c r="D83" t="s">
+        <v>6</v>
+      </c>
+      <c r="E83">
+        <v>0.5</v>
+      </c>
+      <c r="F83">
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <v>500</v>
+      </c>
+      <c r="H83">
+        <v>5000</v>
+      </c>
+      <c r="I83">
+        <v>0.1</v>
+      </c>
+      <c r="J83" s="2">
+        <v>2.9999999999999998E-14</v>
+      </c>
+      <c r="K83">
+        <v>14</v>
+      </c>
+      <c r="L83" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="84" spans="1:12">
+      <c r="A84" t="s">
+        <v>129</v>
+      </c>
+      <c r="B84">
+        <v>600</v>
+      </c>
+      <c r="C84">
+        <v>9600</v>
+      </c>
+      <c r="D84" t="s">
+        <v>6</v>
+      </c>
+      <c r="E84">
+        <v>0.5</v>
+      </c>
+      <c r="F84">
+        <v>0.2</v>
+      </c>
+      <c r="G84">
+        <v>5000</v>
+      </c>
+      <c r="H84">
+        <v>5000</v>
+      </c>
+      <c r="I84">
+        <v>0.5</v>
+      </c>
+      <c r="J84" s="2">
+        <v>2.9999999999999998E-14</v>
+      </c>
+      <c r="K84">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="85" spans="1:12">
+      <c r="A85" t="s">
+        <v>130</v>
+      </c>
+      <c r="B85">
+        <v>600</v>
+      </c>
+      <c r="C85">
+        <v>9600</v>
+      </c>
+      <c r="D85" t="s">
+        <v>6</v>
+      </c>
+      <c r="E85">
+        <v>0.5</v>
+      </c>
+      <c r="F85">
+        <v>0.2</v>
+      </c>
+      <c r="G85">
+        <v>7200</v>
+      </c>
+      <c r="H85">
+        <v>7000</v>
+      </c>
+      <c r="I85">
+        <v>1.5</v>
+      </c>
+      <c r="J85" s="2">
+        <v>2.9999999999999998E-14</v>
+      </c>
+      <c r="K85">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="86" spans="1:12">
+      <c r="A86" t="s">
+        <v>131</v>
+      </c>
+      <c r="B86">
+        <v>600</v>
+      </c>
+      <c r="C86">
+        <v>9600</v>
+      </c>
+      <c r="D86" t="s">
+        <v>6</v>
+      </c>
+      <c r="E86">
+        <v>0.5</v>
+      </c>
+      <c r="F86">
+        <v>0.2</v>
+      </c>
+      <c r="G86">
+        <v>1200</v>
+      </c>
+      <c r="H86">
+        <v>7000</v>
+      </c>
+      <c r="I86">
+        <v>2</v>
+      </c>
+      <c r="J86" s="2">
+        <v>2.9999999999999998E-14</v>
+      </c>
+      <c r="K86">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="87" spans="1:12">
+      <c r="A87" t="s">
+        <v>132</v>
+      </c>
+      <c r="B87">
+        <v>600</v>
+      </c>
+      <c r="C87">
+        <v>9600</v>
+      </c>
+      <c r="D87" t="s">
+        <v>6</v>
+      </c>
+      <c r="E87">
+        <v>0.5</v>
+      </c>
+      <c r="F87">
+        <v>0.2</v>
+      </c>
+      <c r="G87">
+        <v>1200</v>
+      </c>
+      <c r="H87">
+        <v>9870</v>
+      </c>
+      <c r="I87">
+        <v>2</v>
+      </c>
+      <c r="J87" s="2">
+        <v>2.9999999999999998E-14</v>
+      </c>
+      <c r="K87">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="88" spans="1:12">
+      <c r="A88" t="s">
+        <v>133</v>
+      </c>
+      <c r="B88">
+        <v>600</v>
+      </c>
+      <c r="C88">
+        <v>9600</v>
+      </c>
+      <c r="D88" t="s">
+        <v>6</v>
+      </c>
+      <c r="E88">
+        <v>0.5</v>
+      </c>
+      <c r="F88">
+        <v>0.2</v>
+      </c>
+      <c r="G88">
+        <v>1200</v>
+      </c>
+      <c r="H88">
+        <v>12500</v>
+      </c>
+      <c r="I88">
+        <v>0.8</v>
+      </c>
+      <c r="J88" s="2">
+        <v>4.7999999999999999E-15</v>
+      </c>
+      <c r="K88">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="89" spans="1:12">
+      <c r="A89" t="s">
+        <v>134</v>
+      </c>
+      <c r="B89">
+        <v>675</v>
+      </c>
+      <c r="C89">
+        <v>10800</v>
+      </c>
+      <c r="D89" t="s">
+        <v>6</v>
+      </c>
+      <c r="E89">
+        <v>0.5</v>
+      </c>
+      <c r="F89">
+        <v>0.35</v>
+      </c>
+      <c r="G89">
+        <v>3500</v>
+      </c>
+      <c r="H89">
+        <v>12500</v>
+      </c>
+      <c r="I89">
+        <v>1.2</v>
+      </c>
+      <c r="J89" s="2">
+        <v>4.7999999999999999E-15</v>
+      </c>
+      <c r="K89">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="90" spans="1:12">
+      <c r="A90" t="s">
+        <v>135</v>
+      </c>
+      <c r="B90">
+        <v>675</v>
+      </c>
+      <c r="C90">
+        <v>10800</v>
+      </c>
+      <c r="D90" t="s">
+        <v>6</v>
+      </c>
+      <c r="E90">
+        <v>0.5</v>
+      </c>
+      <c r="F90">
+        <v>0.35</v>
+      </c>
+      <c r="G90">
+        <v>3500</v>
+      </c>
+      <c r="H90">
+        <v>15000</v>
+      </c>
+      <c r="I90">
+        <v>0.2</v>
+      </c>
+      <c r="J90" s="2">
+        <v>4.7999999999999999E-15</v>
+      </c>
+      <c r="K90">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="91" spans="1:12">
+      <c r="A91" t="s">
+        <v>136</v>
+      </c>
+      <c r="B91">
+        <v>925</v>
+      </c>
+      <c r="C91">
+        <v>14800</v>
+      </c>
+      <c r="D91" t="s">
+        <v>6</v>
+      </c>
+      <c r="E91">
+        <v>0.5</v>
+      </c>
+      <c r="F91">
+        <v>0.85</v>
+      </c>
+      <c r="G91">
+        <v>6500</v>
+      </c>
+      <c r="H91">
+        <v>15000</v>
+      </c>
+      <c r="I91">
+        <v>1.7</v>
+      </c>
+      <c r="J91" s="2">
+        <v>4.7999999999999999E-15</v>
+      </c>
+      <c r="K91">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="92" spans="1:12">
+      <c r="A92" t="s">
+        <v>137</v>
+      </c>
+      <c r="B92">
+        <v>925</v>
+      </c>
+      <c r="C92">
+        <v>14800</v>
+      </c>
+      <c r="D92" t="s">
+        <v>6</v>
+      </c>
+      <c r="E92">
+        <v>0.5</v>
+      </c>
+      <c r="F92">
+        <v>0.85</v>
+      </c>
+      <c r="G92">
+        <v>2500</v>
+      </c>
+      <c r="H92">
+        <v>17800</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92" s="2">
+        <v>4.7999999999999999E-15</v>
+      </c>
+      <c r="K92">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="93" spans="1:12">
+      <c r="A93" t="s">
+        <v>138</v>
+      </c>
+      <c r="B93">
+        <v>925</v>
+      </c>
+      <c r="C93">
+        <v>14800</v>
+      </c>
+      <c r="D93" t="s">
+        <v>6</v>
+      </c>
+      <c r="E93">
+        <v>0.5</v>
+      </c>
+      <c r="F93">
+        <v>0.85</v>
+      </c>
+      <c r="G93">
+        <v>1500</v>
+      </c>
+      <c r="H93">
+        <v>20000</v>
+      </c>
+      <c r="I93">
+        <v>1</v>
+      </c>
+      <c r="J93" s="2">
+        <v>4.7999999999999999E-15</v>
+      </c>
+      <c r="K93">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="94" spans="1:12">
+      <c r="A94" t="s">
+        <v>139</v>
+      </c>
+      <c r="B94">
+        <v>925</v>
+      </c>
+      <c r="C94">
+        <v>14800</v>
+      </c>
+      <c r="D94" t="s">
+        <v>6</v>
+      </c>
+      <c r="E94">
+        <v>0.5</v>
+      </c>
+      <c r="F94">
+        <v>0.85</v>
+      </c>
+      <c r="G94">
+        <v>5500</v>
+      </c>
+      <c r="H94">
+        <v>20000</v>
+      </c>
+      <c r="I94">
+        <v>0.3</v>
+      </c>
+      <c r="J94" s="2">
+        <v>4.7999999999999999E-15</v>
+      </c>
+      <c r="K94">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="95" spans="1:12">
+      <c r="A95" t="s">
+        <v>140</v>
+      </c>
+      <c r="B95">
+        <v>925</v>
+      </c>
+      <c r="C95">
+        <v>14800</v>
+      </c>
+      <c r="D95" t="s">
+        <v>6</v>
+      </c>
+      <c r="E95">
+        <v>0.5</v>
+      </c>
+      <c r="F95">
+        <v>0.85</v>
+      </c>
+      <c r="G95">
+        <v>4200</v>
+      </c>
+      <c r="H95">
+        <v>20000</v>
+      </c>
+      <c r="I95">
+        <v>1.3</v>
+      </c>
+      <c r="J95" s="2">
+        <v>4.7999999999999999E-15</v>
+      </c>
+      <c r="K95">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="96" spans="1:12">
+      <c r="K96" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="98" spans="1:13">
+      <c r="A98" t="s">
+        <v>150</v>
+      </c>
+      <c r="J98" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="99" spans="1:13">
+      <c r="A99" t="s">
+        <v>253</v>
+      </c>
+      <c r="B99" t="s">
+        <v>3</v>
+      </c>
+      <c r="C99" t="s">
+        <v>4</v>
+      </c>
+      <c r="D99" t="s">
+        <v>5</v>
+      </c>
+      <c r="E99" t="s">
+        <v>64</v>
+      </c>
+      <c r="F99" t="s">
+        <v>10</v>
+      </c>
+      <c r="G99" t="s">
+        <v>152</v>
+      </c>
+      <c r="H99" t="s">
+        <v>49</v>
+      </c>
+      <c r="J99" t="s">
+        <v>254</v>
+      </c>
+      <c r="K99" t="s">
+        <v>255</v>
+      </c>
+      <c r="L99" t="s">
+        <v>254</v>
+      </c>
+      <c r="M99" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="100" spans="1:13">
+      <c r="A100" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="B100" s="4">
+        <v>1350</v>
+      </c>
+      <c r="C100" s="4">
+        <v>2003</v>
+      </c>
+      <c r="D100" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E100" s="4">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>53.2</v>
+      </c>
+      <c r="G100" t="s">
+        <v>240</v>
+      </c>
+      <c r="H100">
+        <v>1.9E-2</v>
+      </c>
+      <c r="J100" s="2">
+        <v>0.11198</v>
+      </c>
+      <c r="K100" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="101" spans="1:13">
+      <c r="A101" s="4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B101" s="4">
+        <v>4300</v>
+      </c>
+      <c r="C101" s="4">
+        <v>5800</v>
+      </c>
+      <c r="D101" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E101" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="F101">
+        <v>30.2</v>
+      </c>
+      <c r="G101" t="s">
+        <v>240</v>
+      </c>
+      <c r="H101">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="J101" s="2">
+        <v>0.25766</v>
+      </c>
+      <c r="K101" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="102" spans="1:13">
+      <c r="A102" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="B102" s="4">
+        <v>3600</v>
+      </c>
+      <c r="C102" s="4">
+        <v>7500</v>
+      </c>
+      <c r="D102" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E102" s="4">
+        <v>2</v>
+      </c>
+      <c r="F102">
+        <v>66.400000000000006</v>
+      </c>
+      <c r="G102" t="s">
+        <v>240</v>
+      </c>
+      <c r="H102">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J102" s="2">
+        <v>0.55054000000000003</v>
+      </c>
+      <c r="K102" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="103" spans="1:13">
+      <c r="A103" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="B103" s="4">
+        <v>1750.3859199999999</v>
+      </c>
+      <c r="C103" s="4">
+        <v>2932.9459200000001</v>
+      </c>
+      <c r="D103" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E103" s="4">
+        <v>0.12447999999999999</v>
+      </c>
+      <c r="F103">
+        <v>101.6</v>
+      </c>
+      <c r="G103" t="s">
+        <v>240</v>
+      </c>
+      <c r="H103">
+        <v>0.01</v>
+      </c>
+      <c r="J103" s="2">
+        <v>1.3421000000000001</v>
+      </c>
+      <c r="K103" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="104" spans="1:13">
+      <c r="A104" s="4" t="s">
+        <v>242</v>
+      </c>
+      <c r="B104" s="4">
+        <v>2300</v>
+      </c>
+      <c r="C104" s="4">
+        <v>3875</v>
+      </c>
+      <c r="D104" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E104" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F104">
+        <v>79.5</v>
+      </c>
+      <c r="G104" t="s">
+        <v>240</v>
+      </c>
+      <c r="H104">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="J104" s="2">
+        <v>4.9949000000000003</v>
+      </c>
+      <c r="K104" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="105" spans="1:13">
+      <c r="A105" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="B105">
+        <v>1400</v>
+      </c>
+      <c r="C105">
+        <v>7500</v>
+      </c>
+      <c r="D105" t="s">
+        <v>6</v>
+      </c>
+      <c r="E105">
+        <v>3</v>
+      </c>
+      <c r="F105">
+        <v>41.8</v>
+      </c>
+      <c r="G105" t="s">
+        <v>240</v>
+      </c>
+      <c r="H105">
+        <v>2.4E-2</v>
+      </c>
+      <c r="J105" s="2">
+        <v>92.742999999999995</v>
+      </c>
+      <c r="K105" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="107" spans="1:13">
+      <c r="A107" s="4" t="s">
+        <v>153</v>
+      </c>
+      <c r="B107" s="4">
+        <v>1350</v>
+      </c>
+      <c r="C107" s="4">
+        <v>2003</v>
+      </c>
+      <c r="D107" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E107" s="4">
+        <v>1</v>
+      </c>
+      <c r="F107">
+        <v>49.4</v>
+      </c>
+      <c r="G107" t="s">
+        <v>151</v>
+      </c>
+      <c r="H107">
+        <v>0.02</v>
+      </c>
+      <c r="J107" s="2">
+        <v>8.4850999999999996E-2</v>
+      </c>
+      <c r="K107" t="s">
+        <v>220</v>
+      </c>
+      <c r="L107" s="2">
+        <v>96.254000000000005</v>
+      </c>
+      <c r="M107" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="108" spans="1:13">
+      <c r="A108" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="B108" s="4">
+        <v>4300</v>
+      </c>
+      <c r="C108" s="4">
+        <v>5800</v>
+      </c>
+      <c r="D108" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E108" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="F108">
+        <v>27.9</v>
+      </c>
+      <c r="G108" t="s">
+        <v>151</v>
+      </c>
+      <c r="H108">
+        <v>3.5999999999999997E-2</v>
+      </c>
+      <c r="J108" s="2">
+        <v>0.40932000000000002</v>
+      </c>
+      <c r="K108" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="109" spans="1:13">
+      <c r="A109" s="4" t="s">
+        <v>155</v>
+      </c>
+      <c r="B109" s="4">
+        <v>3600</v>
+      </c>
+      <c r="C109" s="4">
+        <v>8200</v>
+      </c>
+      <c r="D109" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E109" s="4">
+        <v>2</v>
+      </c>
+      <c r="F109">
+        <v>69</v>
+      </c>
+      <c r="G109" t="s">
+        <v>151</v>
+      </c>
+      <c r="H109">
+        <v>1.4E-2</v>
+      </c>
+      <c r="J109" s="2">
+        <v>2.4421999999999999E-2</v>
+      </c>
+      <c r="K109" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="110" spans="1:13">
+      <c r="A110" s="4" t="s">
+        <v>156</v>
+      </c>
+      <c r="B110" s="4">
+        <v>1750.3859199999999</v>
+      </c>
+      <c r="C110" s="4">
+        <v>2932.9459200000001</v>
+      </c>
+      <c r="D110" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E110" s="4">
+        <v>0.12447999999999999</v>
+      </c>
+      <c r="F110">
+        <v>99.1</v>
+      </c>
+      <c r="G110" t="s">
+        <v>151</v>
+      </c>
+      <c r="H110">
+        <v>0.01</v>
+      </c>
+      <c r="J110" s="2">
+        <v>0.17595</v>
+      </c>
+      <c r="K110" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="111" spans="1:13">
+      <c r="A111" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="B111" s="4">
+        <v>2300</v>
+      </c>
+      <c r="C111" s="4">
+        <v>3875</v>
+      </c>
+      <c r="D111" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E111" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F111">
+        <v>83.5</v>
+      </c>
+      <c r="G111" t="s">
+        <v>151</v>
+      </c>
+      <c r="H111">
+        <v>1.2E-2</v>
+      </c>
+      <c r="J111" s="2">
+        <v>1.7351999999999999E-3</v>
+      </c>
+      <c r="K111" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="112" spans="1:13">
+      <c r="A112" s="4" t="s">
+        <v>158</v>
+      </c>
+      <c r="B112">
+        <v>1400</v>
+      </c>
+      <c r="C112">
+        <v>9800</v>
+      </c>
+      <c r="D112" t="s">
+        <v>6</v>
+      </c>
+      <c r="E112">
+        <v>3</v>
+      </c>
+      <c r="F112">
+        <v>35.5</v>
+      </c>
+      <c r="G112" t="s">
+        <v>151</v>
+      </c>
+      <c r="H112">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="J112" s="2">
+        <v>3.0501999999999998</v>
+      </c>
+      <c r="K112" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="114" spans="1:13">
+      <c r="A114" s="4" t="s">
+        <v>162</v>
+      </c>
+      <c r="B114" s="4">
+        <v>1350</v>
+      </c>
+      <c r="C114" s="4">
+        <v>2003</v>
+      </c>
+      <c r="D114" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E114" s="4">
+        <v>1</v>
+      </c>
+      <c r="F114">
+        <v>55.7</v>
+      </c>
+      <c r="G114" t="s">
+        <v>151</v>
+      </c>
+      <c r="H114">
+        <v>1.7999999999999999E-2</v>
+      </c>
+      <c r="J114" s="2">
+        <v>4.7739000000000003</v>
+      </c>
+      <c r="K114" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="115" spans="1:13">
+      <c r="A115" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="B115" s="4">
+        <v>4300</v>
+      </c>
+      <c r="C115" s="4">
+        <v>5800</v>
+      </c>
+      <c r="D115" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E115" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="F115">
+        <v>33.9</v>
+      </c>
+      <c r="G115" t="s">
+        <v>151</v>
+      </c>
+      <c r="H115">
+        <v>2.9000000000000001E-2</v>
+      </c>
+      <c r="J115" s="2">
+        <v>4.3585000000000003</v>
+      </c>
+      <c r="K115" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="116" spans="1:13">
+      <c r="A116" s="4" t="s">
+        <v>160</v>
+      </c>
+      <c r="B116" s="4">
+        <v>3600</v>
+      </c>
+      <c r="C116" s="4">
+        <v>8200</v>
+      </c>
+      <c r="D116" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E116" s="4">
+        <v>2</v>
+      </c>
+      <c r="F116">
+        <v>61.2</v>
+      </c>
+      <c r="G116" t="s">
+        <v>151</v>
+      </c>
+      <c r="H116">
+        <v>1.6E-2</v>
+      </c>
+      <c r="J116" s="2">
+        <v>18.779</v>
+      </c>
+      <c r="K116" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="117" spans="1:13">
+      <c r="A117" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="B117" s="4">
+        <v>1750.3859199999999</v>
+      </c>
+      <c r="C117" s="4">
+        <v>2932.9459200000001</v>
+      </c>
+      <c r="D117" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E117" s="4">
+        <v>0.12447999999999999</v>
+      </c>
+      <c r="F117">
+        <v>101.6</v>
+      </c>
+      <c r="G117" t="s">
+        <v>151</v>
+      </c>
+      <c r="H117">
+        <v>0.01</v>
+      </c>
+      <c r="J117" s="2">
+        <v>72.087999999999994</v>
+      </c>
+      <c r="K117" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="118" spans="1:13">
+      <c r="A118" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="B118" s="4">
+        <v>2300</v>
+      </c>
+      <c r="C118" s="4">
+        <v>3875</v>
+      </c>
+      <c r="D118" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E118" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F118">
+        <v>78.3</v>
+      </c>
+      <c r="G118" t="s">
+        <v>151</v>
+      </c>
+      <c r="H118">
+        <v>1.2999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="119" spans="1:13">
+      <c r="A119" s="4" t="s">
+        <v>164</v>
+      </c>
+      <c r="B119">
+        <v>1400</v>
+      </c>
+      <c r="C119">
+        <v>9800</v>
+      </c>
+      <c r="D119" t="s">
+        <v>6</v>
+      </c>
+      <c r="E119">
+        <v>3</v>
+      </c>
+      <c r="F119">
+        <v>45.6</v>
+      </c>
+      <c r="G119" t="s">
+        <v>151</v>
+      </c>
+      <c r="H119">
+        <v>2.1999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="121" spans="1:13">
+      <c r="A121" s="4" t="s">
+        <v>165</v>
+      </c>
+      <c r="B121" s="4">
+        <v>1350</v>
+      </c>
+      <c r="C121" s="4">
+        <v>2003</v>
+      </c>
+      <c r="D121" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E121" s="4">
+        <v>1</v>
+      </c>
+      <c r="F121">
+        <v>46</v>
+      </c>
+      <c r="G121" t="s">
+        <v>151</v>
+      </c>
+      <c r="H121">
+        <v>2.1999999999999999E-2</v>
+      </c>
+      <c r="J121" s="2">
+        <v>4.8411999999999997</v>
+      </c>
+      <c r="K121" t="s">
+        <v>213</v>
+      </c>
+      <c r="L121" s="2">
+        <v>13.007</v>
+      </c>
+      <c r="M121" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="122" spans="1:13">
+      <c r="A122" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="B122" s="4">
+        <v>4300</v>
+      </c>
+      <c r="C122" s="4">
+        <v>5800</v>
+      </c>
+      <c r="D122" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E122" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="F122">
+        <v>30.9</v>
+      </c>
+      <c r="G122" t="s">
+        <v>151</v>
+      </c>
+      <c r="H122">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="J122" s="2">
+        <v>24.946999999999999</v>
+      </c>
+      <c r="K122" t="s">
+        <v>214</v>
+      </c>
+      <c r="L122" s="2">
+        <v>9.7298000000000003E-3</v>
+      </c>
+      <c r="M122" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="123" spans="1:13">
+      <c r="A123" s="4" t="s">
+        <v>167</v>
+      </c>
+      <c r="B123" s="4">
+        <v>3600</v>
+      </c>
+      <c r="C123" s="4">
+        <v>8200</v>
+      </c>
+      <c r="D123" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E123" s="4">
+        <v>2</v>
+      </c>
+      <c r="F123">
+        <v>72.5</v>
+      </c>
+      <c r="G123" t="s">
+        <v>151</v>
+      </c>
+      <c r="H123">
+        <v>1.4E-2</v>
+      </c>
+      <c r="J123" s="2">
+        <v>18.948</v>
+      </c>
+      <c r="K123" t="s">
+        <v>215</v>
+      </c>
+      <c r="L123" s="2">
+        <v>8.3491999999999997E-2</v>
+      </c>
+      <c r="M123" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="124" spans="1:13">
+      <c r="A124" s="4" t="s">
+        <v>168</v>
+      </c>
+      <c r="B124" s="4">
+        <v>1750.3859199999999</v>
+      </c>
+      <c r="C124" s="4">
+        <v>2932.9459200000001</v>
+      </c>
+      <c r="D124" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E124" s="4">
+        <v>0.12447999999999999</v>
+      </c>
+      <c r="F124">
+        <v>100.7</v>
+      </c>
+      <c r="G124" t="s">
+        <v>151</v>
+      </c>
+      <c r="H124">
+        <v>0.01</v>
+      </c>
+      <c r="J124" s="2">
+        <v>1.9061999999999999</v>
+      </c>
+      <c r="K124" t="s">
+        <v>219</v>
+      </c>
+      <c r="L124" s="2">
+        <v>21.850999999999999</v>
+      </c>
+      <c r="M124" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="125" spans="1:13">
+      <c r="A125" s="4" t="s">
+        <v>169</v>
+      </c>
+      <c r="B125" s="4">
+        <v>2300</v>
+      </c>
+      <c r="C125" s="4">
+        <v>3875</v>
+      </c>
+      <c r="D125" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E125" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F125">
+        <v>79</v>
+      </c>
+      <c r="G125" t="s">
+        <v>151</v>
+      </c>
+      <c r="H125">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="J125" s="2">
+        <v>2.1873</v>
+      </c>
+      <c r="K125" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="126" spans="1:13">
+      <c r="A126" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="B126">
+        <v>1400</v>
+      </c>
+      <c r="C126">
+        <v>9800</v>
+      </c>
+      <c r="D126" t="s">
+        <v>6</v>
+      </c>
+      <c r="E126">
+        <v>3</v>
+      </c>
+      <c r="F126">
+        <v>43.4</v>
+      </c>
+      <c r="G126" t="s">
+        <v>151</v>
+      </c>
+      <c r="H126">
+        <v>2.3E-2</v>
+      </c>
+      <c r="J126" s="2">
+        <v>12.218999999999999</v>
+      </c>
+      <c r="K126" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="128" spans="1:13">
+      <c r="A128" s="4" t="s">
+        <v>171</v>
+      </c>
+      <c r="B128" s="4">
+        <v>1350</v>
+      </c>
+      <c r="C128" s="4">
+        <v>2003</v>
+      </c>
+      <c r="D128" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E128" s="4">
+        <v>1</v>
+      </c>
+      <c r="F128">
+        <v>51.5</v>
+      </c>
+      <c r="G128" t="s">
+        <v>151</v>
+      </c>
+      <c r="H128">
+        <v>1.9E-2</v>
+      </c>
+      <c r="J128" s="2">
+        <v>38.531999999999996</v>
+      </c>
+      <c r="K128" t="s">
+        <v>214</v>
+      </c>
+      <c r="L128" s="2">
+        <v>3.9912000000000003E-2</v>
+      </c>
+      <c r="M128" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="129" spans="1:13">
+      <c r="A129" s="4" t="s">
+        <v>172</v>
+      </c>
+      <c r="B129" s="4">
+        <v>4300</v>
+      </c>
+      <c r="C129" s="4">
+        <v>5800</v>
+      </c>
+      <c r="D129" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E129" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="F129">
+        <v>31.6</v>
+      </c>
+      <c r="G129" t="s">
+        <v>151</v>
+      </c>
+      <c r="H129">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="J129" s="2">
+        <v>1.1606E-2</v>
+      </c>
+      <c r="K129" t="s">
+        <v>215</v>
+      </c>
+      <c r="L129" s="2">
+        <v>14.362</v>
+      </c>
+      <c r="M129" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="130" spans="1:13">
+      <c r="A130" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="B130" s="4">
+        <v>3600</v>
+      </c>
+      <c r="C130" s="4">
+        <v>8200</v>
+      </c>
+      <c r="D130" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E130" s="4">
+        <v>2</v>
+      </c>
+      <c r="F130">
+        <v>67.599999999999994</v>
+      </c>
+      <c r="G130" t="s">
+        <v>151</v>
+      </c>
+      <c r="H130">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J130" s="2">
+        <v>12.657</v>
+      </c>
+      <c r="K130" t="s">
+        <v>216</v>
+      </c>
+      <c r="L130" s="2">
+        <v>32.636000000000003</v>
+      </c>
+      <c r="M130" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="131" spans="1:13">
+      <c r="A131" s="4" t="s">
+        <v>174</v>
+      </c>
+      <c r="B131" s="4">
+        <v>1750.3859199999999</v>
+      </c>
+      <c r="C131" s="4">
+        <v>2932.9459200000001</v>
+      </c>
+      <c r="D131" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E131" s="4">
+        <v>0.12447999999999999</v>
+      </c>
+      <c r="F131">
+        <v>99.8</v>
+      </c>
+      <c r="G131" t="s">
+        <v>151</v>
+      </c>
+      <c r="H131">
+        <v>0.01</v>
+      </c>
+      <c r="J131" s="2">
+        <v>1.7131000000000001</v>
+      </c>
+      <c r="K131" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="132" spans="1:13">
+      <c r="A132" s="4" t="s">
+        <v>175</v>
+      </c>
+      <c r="B132" s="4">
+        <v>2300</v>
+      </c>
+      <c r="C132" s="4">
+        <v>3875</v>
+      </c>
+      <c r="D132" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E132" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F132">
+        <v>83.1</v>
+      </c>
+      <c r="G132" t="s">
+        <v>151</v>
+      </c>
+      <c r="H132">
+        <v>1.2E-2</v>
+      </c>
+      <c r="J132" s="2">
+        <v>2.2977000000000001E-2</v>
+      </c>
+      <c r="K132" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="133" spans="1:13">
+      <c r="A133" s="4" t="s">
+        <v>176</v>
+      </c>
+      <c r="B133">
+        <v>1400</v>
+      </c>
+      <c r="C133">
+        <v>9800</v>
+      </c>
+      <c r="D133" t="s">
+        <v>6</v>
+      </c>
+      <c r="E133">
+        <v>3</v>
+      </c>
+      <c r="F133">
+        <v>43.3</v>
+      </c>
+      <c r="G133" t="s">
+        <v>151</v>
+      </c>
+      <c r="H133">
+        <v>2.3E-2</v>
+      </c>
+      <c r="J133" s="2">
+        <v>2.5349E-2</v>
+      </c>
+      <c r="K133" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="134" spans="1:13">
+      <c r="A134" s="4"/>
+    </row>
+    <row r="135" spans="1:13">
+      <c r="A135" s="4" t="s">
+        <v>246</v>
+      </c>
+      <c r="B135" s="4">
+        <v>1350</v>
+      </c>
+      <c r="C135" s="4">
+        <v>2003</v>
+      </c>
+      <c r="D135" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E135" s="4">
+        <v>1</v>
+      </c>
+      <c r="F135">
+        <v>51</v>
+      </c>
+      <c r="G135" t="s">
+        <v>151</v>
+      </c>
+      <c r="H135">
+        <v>0.02</v>
+      </c>
+      <c r="J135" s="2">
+        <v>14.565</v>
+      </c>
+      <c r="K135" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="136" spans="1:13">
+      <c r="A136" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="B136" s="4">
+        <v>4300</v>
+      </c>
+      <c r="C136" s="4">
+        <v>5800</v>
+      </c>
+      <c r="D136" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E136" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="F136">
+        <v>28.9</v>
+      </c>
+      <c r="G136" t="s">
+        <v>151</v>
+      </c>
+      <c r="H136">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J136" s="2">
+        <v>85.435000000000002</v>
+      </c>
+      <c r="K136" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="137" spans="1:13">
+      <c r="A137" s="4" t="s">
+        <v>248</v>
+      </c>
+      <c r="B137" s="4">
+        <v>3600</v>
+      </c>
+      <c r="C137" s="4">
+        <v>8200</v>
+      </c>
+      <c r="D137" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E137" s="4">
+        <v>2</v>
+      </c>
+      <c r="F137">
+        <v>65.7</v>
+      </c>
+      <c r="G137" t="s">
+        <v>151</v>
+      </c>
+      <c r="H137">
+        <v>1.4999999999999999E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="1:13">
+      <c r="A138" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="B138" s="4">
+        <v>1750.3859199999999</v>
+      </c>
+      <c r="C138" s="4">
+        <v>2932.9459200000001</v>
+      </c>
+      <c r="D138" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E138" s="4">
+        <v>0.12447999999999999</v>
+      </c>
+      <c r="F138">
+        <v>100</v>
+      </c>
+      <c r="G138" t="s">
+        <v>151</v>
+      </c>
+      <c r="H138">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="139" spans="1:13">
+      <c r="A139" s="4" t="s">
+        <v>250</v>
+      </c>
+      <c r="B139" s="4">
+        <v>2300</v>
+      </c>
+      <c r="C139" s="4">
+        <v>3875</v>
+      </c>
+      <c r="D139" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E139" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F139">
+        <v>80.5</v>
+      </c>
+      <c r="G139" t="s">
+        <v>151</v>
+      </c>
+      <c r="H139">
+        <v>1.2E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="1:13">
+      <c r="A140" s="4" t="s">
+        <v>251</v>
+      </c>
+      <c r="B140">
+        <v>1400</v>
+      </c>
+      <c r="C140">
+        <v>9800</v>
+      </c>
+      <c r="D140" t="s">
+        <v>6</v>
+      </c>
+      <c r="E140">
+        <v>3</v>
+      </c>
+      <c r="F140">
+        <v>42.5</v>
+      </c>
+      <c r="G140" t="s">
+        <v>151</v>
+      </c>
+      <c r="H140">
+        <v>2.4E-2</v>
+      </c>
+    </row>
+    <row r="142" spans="1:13">
+      <c r="A142" s="4" t="s">
+        <v>178</v>
+      </c>
+      <c r="B142" s="4">
+        <v>1350</v>
+      </c>
+      <c r="C142" s="4">
+        <v>2003</v>
+      </c>
+      <c r="D142" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E142" s="4">
+        <v>1</v>
+      </c>
+      <c r="F142">
+        <v>58.4</v>
+      </c>
+      <c r="G142" t="s">
+        <v>151</v>
+      </c>
+      <c r="H142">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="J142" s="2">
+        <v>9.0803999999999991</v>
+      </c>
+      <c r="K142" t="s">
+        <v>213</v>
+      </c>
+      <c r="L142" s="2">
+        <v>0.39632000000000001</v>
+      </c>
+      <c r="M142" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="143" spans="1:13">
+      <c r="A143" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="B143" s="4">
+        <v>4300</v>
+      </c>
+      <c r="C143" s="4">
+        <v>5800</v>
+      </c>
+      <c r="D143" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E143" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="F143">
+        <v>28.5</v>
+      </c>
+      <c r="G143" t="s">
+        <v>151</v>
+      </c>
+      <c r="H143">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J143" s="2">
+        <v>26.14</v>
+      </c>
+      <c r="K143" t="s">
+        <v>214</v>
+      </c>
+      <c r="L143" s="2">
+        <v>0.25863000000000003</v>
+      </c>
+      <c r="M143" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="144" spans="1:13">
+      <c r="A144" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="B144" s="4">
+        <v>3600</v>
+      </c>
+      <c r="C144" s="4">
+        <v>8200</v>
+      </c>
+      <c r="D144" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E144" s="4">
+        <v>2</v>
+      </c>
+      <c r="F144">
+        <v>66.5</v>
+      </c>
+      <c r="G144" t="s">
+        <v>151</v>
+      </c>
+      <c r="H144">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="J144" s="2">
+        <v>30.623000000000001</v>
+      </c>
+      <c r="K144" t="s">
+        <v>215</v>
+      </c>
+      <c r="L144" s="2">
+        <v>1.5811999999999999</v>
+      </c>
+      <c r="M144" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="145" spans="1:13">
+      <c r="A145" s="4" t="s">
+        <v>180</v>
+      </c>
+      <c r="B145" s="4">
+        <v>1750.3859199999999</v>
+      </c>
+      <c r="C145" s="4">
+        <v>2932.9459200000001</v>
+      </c>
+      <c r="D145" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E145" s="4">
+        <v>0.12447999999999999</v>
+      </c>
+      <c r="F145">
+        <v>84.2</v>
+      </c>
+      <c r="G145" t="s">
+        <v>151</v>
+      </c>
+      <c r="H145">
+        <v>1.2E-2</v>
+      </c>
+      <c r="J145" s="2">
+        <v>14.544</v>
+      </c>
+      <c r="K145" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="146" spans="1:13">
+      <c r="A146" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="B146" s="4">
+        <v>2300</v>
+      </c>
+      <c r="C146" s="4">
+        <v>3875</v>
+      </c>
+      <c r="D146" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E146" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F146">
+        <v>78.7</v>
+      </c>
+      <c r="G146" t="s">
+        <v>151</v>
+      </c>
+      <c r="H146">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="J146" s="2">
+        <v>17.372</v>
+      </c>
+      <c r="K146" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="147" spans="1:13">
+      <c r="A147" s="4" t="s">
+        <v>182</v>
+      </c>
+      <c r="B147">
+        <v>1400</v>
+      </c>
+      <c r="C147">
+        <v>9800</v>
+      </c>
+      <c r="D147" t="s">
+        <v>6</v>
+      </c>
+      <c r="E147">
+        <v>3</v>
+      </c>
+      <c r="F147">
+        <v>39</v>
+      </c>
+      <c r="G147" t="s">
+        <v>151</v>
+      </c>
+      <c r="H147">
+        <v>2.5999999999999999E-2</v>
+      </c>
+      <c r="J147" s="2">
+        <v>3.4949999999999998E-3</v>
+      </c>
+      <c r="K147" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="149" spans="1:13">
+      <c r="A149" s="4" t="s">
+        <v>183</v>
+      </c>
+      <c r="B149" s="4">
+        <v>1350</v>
+      </c>
+      <c r="C149" s="4">
+        <v>2003</v>
+      </c>
+      <c r="D149" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E149" s="4">
+        <v>1</v>
+      </c>
+      <c r="F149">
+        <v>50.7</v>
+      </c>
+      <c r="G149" t="s">
+        <v>151</v>
+      </c>
+      <c r="H149">
+        <v>0.02</v>
+      </c>
+      <c r="J149" s="2">
+        <v>17.052</v>
+      </c>
+      <c r="K149" t="s">
+        <v>214</v>
+      </c>
+      <c r="L149" s="2">
+        <v>0.77539999999999998</v>
+      </c>
+      <c r="M149" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="150" spans="1:13">
+      <c r="A150" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="B150" s="4">
+        <v>4300</v>
+      </c>
+      <c r="C150" s="4">
+        <v>5800</v>
+      </c>
+      <c r="D150" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E150" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="F150">
+        <v>28.4</v>
+      </c>
+      <c r="G150" t="s">
+        <v>151</v>
+      </c>
+      <c r="H150">
+        <v>3.5000000000000003E-2</v>
+      </c>
+      <c r="J150" s="2">
+        <v>72.355000000000004</v>
+      </c>
+      <c r="K150" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="151" spans="1:13">
+      <c r="A151" s="4" t="s">
+        <v>189</v>
+      </c>
+      <c r="B151" s="4">
+        <v>3600</v>
+      </c>
+      <c r="C151" s="4">
+        <v>8200</v>
+      </c>
+      <c r="D151" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E151" s="4">
+        <v>2</v>
+      </c>
+      <c r="F151">
+        <v>58.3</v>
+      </c>
+      <c r="G151" t="s">
+        <v>151</v>
+      </c>
+      <c r="H151">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="J151" s="2">
+        <v>4.6028000000000002</v>
+      </c>
+      <c r="K151" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="152" spans="1:13">
+      <c r="A152" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="B152" s="4">
+        <v>1750.3859199999999</v>
+      </c>
+      <c r="C152" s="4">
+        <v>2932.9459200000001</v>
+      </c>
+      <c r="D152" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E152" s="4">
+        <v>0.12447999999999999</v>
+      </c>
+      <c r="F152">
+        <v>99.4</v>
+      </c>
+      <c r="G152" t="s">
+        <v>151</v>
+      </c>
+      <c r="H152">
+        <v>0.01</v>
+      </c>
+      <c r="J152" s="2">
+        <v>0.16211999999999999</v>
+      </c>
+      <c r="K152" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="153" spans="1:13">
+      <c r="A153" s="4" t="s">
+        <v>191</v>
+      </c>
+      <c r="B153" s="4">
+        <v>2300</v>
+      </c>
+      <c r="C153" s="4">
+        <v>3875</v>
+      </c>
+      <c r="D153" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E153" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F153">
+        <v>81.8</v>
+      </c>
+      <c r="G153" t="s">
+        <v>151</v>
+      </c>
+      <c r="H153">
+        <v>1.2E-2</v>
+      </c>
+      <c r="J153" s="2">
+        <v>5.5645E-2</v>
+      </c>
+      <c r="K153" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="154" spans="1:13">
+      <c r="A154" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="B154">
+        <v>1400</v>
+      </c>
+      <c r="C154">
+        <v>9800</v>
+      </c>
+      <c r="D154" t="s">
+        <v>6</v>
+      </c>
+      <c r="E154">
+        <v>3</v>
+      </c>
+      <c r="F154">
+        <v>44</v>
+      </c>
+      <c r="G154" t="s">
+        <v>151</v>
+      </c>
+      <c r="H154">
+        <v>2.3E-2</v>
+      </c>
+      <c r="J154" s="2">
+        <v>4.9976000000000003</v>
+      </c>
+      <c r="K154" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="156" spans="1:13">
+      <c r="A156" s="4" t="s">
+        <v>192</v>
+      </c>
+      <c r="B156" s="4">
+        <v>1350</v>
+      </c>
+      <c r="C156" s="4">
+        <v>2003</v>
+      </c>
+      <c r="D156" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E156" s="4">
+        <v>1</v>
+      </c>
+      <c r="F156">
+        <v>50.7</v>
+      </c>
+      <c r="G156" t="s">
+        <v>151</v>
+      </c>
+      <c r="H156">
+        <v>0.02</v>
+      </c>
+      <c r="J156" s="2">
+        <v>41.798000000000002</v>
+      </c>
+      <c r="K156" t="s">
+        <v>213</v>
+      </c>
+      <c r="L156" s="2">
+        <v>1.4649000000000001</v>
+      </c>
+      <c r="M156" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="157" spans="1:13">
+      <c r="A157" s="4" t="s">
+        <v>193</v>
+      </c>
+      <c r="B157" s="4">
+        <v>4300</v>
+      </c>
+      <c r="C157" s="4">
+        <v>5800</v>
+      </c>
+      <c r="D157" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E157" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="F157">
+        <v>33.4</v>
+      </c>
+      <c r="G157" t="s">
+        <v>151</v>
+      </c>
+      <c r="H157">
+        <v>0.03</v>
+      </c>
+      <c r="J157" s="2">
+        <v>6.0164999999999997</v>
+      </c>
+      <c r="K157" t="s">
+        <v>220</v>
+      </c>
+      <c r="L157" s="2">
+        <v>4.2423999999999999</v>
+      </c>
+      <c r="M157" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="158" spans="1:13">
+      <c r="A158" s="4" t="s">
+        <v>185</v>
+      </c>
+      <c r="B158" s="4">
+        <v>3600</v>
+      </c>
+      <c r="C158" s="4">
+        <v>8200</v>
+      </c>
+      <c r="D158" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E158" s="4">
+        <v>2</v>
+      </c>
+      <c r="F158">
+        <v>59.3</v>
+      </c>
+      <c r="G158" t="s">
+        <v>151</v>
+      </c>
+      <c r="H158">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="J158" s="2">
+        <v>39.023000000000003</v>
+      </c>
+      <c r="K158" t="s">
+        <v>221</v>
+      </c>
+      <c r="L158" s="2">
+        <v>6.5929000000000002</v>
+      </c>
+      <c r="M158" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="159" spans="1:13">
+      <c r="A159" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="B159" s="4">
+        <v>1750.3859199999999</v>
+      </c>
+      <c r="C159" s="4">
+        <v>2932.9459200000001</v>
+      </c>
+      <c r="D159" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E159" s="4">
+        <v>0.12447999999999999</v>
+      </c>
+      <c r="F159">
+        <v>102.2</v>
+      </c>
+      <c r="G159" t="s">
+        <v>151</v>
+      </c>
+      <c r="H159">
+        <v>0.01</v>
+      </c>
+      <c r="J159" s="2">
+        <v>0.27805999999999997</v>
+      </c>
+      <c r="K159" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="160" spans="1:13">
+      <c r="A160" s="4" t="s">
+        <v>195</v>
+      </c>
+      <c r="B160" s="4">
+        <v>2300</v>
+      </c>
+      <c r="C160" s="4">
+        <v>3875</v>
+      </c>
+      <c r="D160" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E160" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F160">
+        <v>77.7</v>
+      </c>
+      <c r="G160" t="s">
+        <v>151</v>
+      </c>
+      <c r="H160">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="J160" s="2">
+        <v>0.18</v>
+      </c>
+      <c r="K160" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="161" spans="1:13">
+      <c r="A161" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="B161">
+        <v>1400</v>
+      </c>
+      <c r="C161">
+        <v>9800</v>
+      </c>
+      <c r="D161" t="s">
+        <v>6</v>
+      </c>
+      <c r="E161">
+        <v>3</v>
+      </c>
+      <c r="F161">
+        <v>39.5</v>
+      </c>
+      <c r="G161" t="s">
+        <v>151</v>
+      </c>
+      <c r="H161">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="J161" s="2">
+        <v>0.40409</v>
+      </c>
+      <c r="K161" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="163" spans="1:13">
+      <c r="A163" s="4" t="s">
+        <v>197</v>
+      </c>
+      <c r="B163" s="4">
+        <v>1350</v>
+      </c>
+      <c r="C163" s="4">
+        <v>2003</v>
+      </c>
+      <c r="D163" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E163" s="4">
+        <v>1</v>
+      </c>
+      <c r="F163">
+        <v>48</v>
+      </c>
+      <c r="G163" t="s">
+        <v>151</v>
+      </c>
+      <c r="H163">
+        <v>2.1000000000000001E-2</v>
+      </c>
+      <c r="J163" s="2">
+        <v>18.132000000000001</v>
+      </c>
+      <c r="K163" t="s">
+        <v>214</v>
+      </c>
+      <c r="L163" s="2">
+        <v>1.8903000000000001</v>
+      </c>
+      <c r="M163" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="164" spans="1:13">
+      <c r="A164" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="B164" s="4">
+        <v>4300</v>
+      </c>
+      <c r="C164" s="4">
+        <v>5800</v>
+      </c>
+      <c r="D164" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E164" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="F164">
+        <v>26.9</v>
+      </c>
+      <c r="G164" t="s">
+        <v>151</v>
+      </c>
+      <c r="H164">
+        <v>3.6999999999999998E-2</v>
+      </c>
+      <c r="J164" s="2">
+        <v>54.127000000000002</v>
+      </c>
+      <c r="K164" t="s">
+        <v>215</v>
+      </c>
+      <c r="L164" s="2">
+        <v>5.0473999999999997</v>
+      </c>
+      <c r="M164" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="165" spans="1:13">
+      <c r="A165" s="4" t="s">
+        <v>199</v>
+      </c>
+      <c r="B165" s="4">
+        <v>3600</v>
+      </c>
+      <c r="C165" s="4">
+        <v>8200</v>
+      </c>
+      <c r="D165" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E165" s="4">
+        <v>2</v>
+      </c>
+      <c r="F165">
+        <v>70.7</v>
+      </c>
+      <c r="G165" t="s">
+        <v>151</v>
+      </c>
+      <c r="H165">
+        <v>1.4E-2</v>
+      </c>
+      <c r="J165" s="2">
+        <v>1.3798999999999999</v>
+      </c>
+      <c r="K165" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="166" spans="1:13">
+      <c r="A166" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="B166" s="4">
+        <v>1750.3859199999999</v>
+      </c>
+      <c r="C166" s="4">
+        <v>2932.9459200000001</v>
+      </c>
+      <c r="D166" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E166" s="4">
+        <v>0.12447999999999999</v>
+      </c>
+      <c r="F166">
+        <v>101.3</v>
+      </c>
+      <c r="G166" t="s">
+        <v>151</v>
+      </c>
+      <c r="H166">
+        <v>0.01</v>
+      </c>
+      <c r="J166" s="2">
+        <v>19.361999999999998</v>
+      </c>
+      <c r="K166" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="167" spans="1:13">
+      <c r="A167" s="4" t="s">
+        <v>200</v>
+      </c>
+      <c r="B167" s="4">
+        <v>2300</v>
+      </c>
+      <c r="C167" s="4">
+        <v>3875</v>
+      </c>
+      <c r="D167" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E167" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F167">
+        <v>81.8</v>
+      </c>
+      <c r="G167" t="s">
+        <v>151</v>
+      </c>
+      <c r="H167">
+        <v>1.2E-2</v>
+      </c>
+      <c r="J167" s="2">
+        <v>1.9057000000000001E-2</v>
+      </c>
+      <c r="K167" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="168" spans="1:13">
+      <c r="A168" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="B168">
+        <v>1400</v>
+      </c>
+      <c r="C168">
+        <v>9800</v>
+      </c>
+      <c r="D168" t="s">
+        <v>6</v>
+      </c>
+      <c r="E168">
+        <v>3</v>
+      </c>
+      <c r="F168">
+        <v>36.1</v>
+      </c>
+      <c r="G168" t="s">
+        <v>151</v>
+      </c>
+      <c r="H168">
+        <v>2.8000000000000001E-2</v>
+      </c>
+      <c r="J168" s="2">
+        <v>4.249E-2</v>
+      </c>
+      <c r="K168" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="170" spans="1:13">
+      <c r="A170" s="4" t="s">
+        <v>202</v>
+      </c>
+      <c r="B170" s="4">
+        <v>1350</v>
+      </c>
+      <c r="C170" s="4">
+        <v>2003</v>
+      </c>
+      <c r="D170" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E170" s="4">
+        <v>1</v>
+      </c>
+      <c r="F170">
+        <v>49.5</v>
+      </c>
+      <c r="G170" t="s">
+        <v>151</v>
+      </c>
+      <c r="H170">
+        <v>0.02</v>
+      </c>
+      <c r="J170" s="2">
+        <v>2.0716000000000001</v>
+      </c>
+      <c r="K170" t="s">
+        <v>213</v>
+      </c>
+      <c r="L170" s="2">
+        <v>1.4197E-2</v>
+      </c>
+      <c r="M170" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="171" spans="1:13">
+      <c r="A171" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="B171" s="4">
+        <v>4300</v>
+      </c>
+      <c r="C171" s="4">
+        <v>5800</v>
+      </c>
+      <c r="D171" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E171" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="F171">
+        <v>32.4</v>
+      </c>
+      <c r="G171" t="s">
+        <v>151</v>
+      </c>
+      <c r="H171">
+        <v>3.1E-2</v>
+      </c>
+      <c r="J171" s="2">
+        <v>4.8646000000000003</v>
+      </c>
+      <c r="K171" t="s">
+        <v>214</v>
+      </c>
+      <c r="L171" s="2">
+        <v>0.12263</v>
+      </c>
+      <c r="M171" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="172" spans="1:13">
+      <c r="A172" s="4" t="s">
+        <v>204</v>
+      </c>
+      <c r="B172" s="4">
+        <v>3600</v>
+      </c>
+      <c r="C172" s="4">
+        <v>8200</v>
+      </c>
+      <c r="D172" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E172" s="4">
+        <v>2</v>
+      </c>
+      <c r="F172">
+        <v>62.6</v>
+      </c>
+      <c r="G172" t="s">
+        <v>151</v>
+      </c>
+      <c r="H172">
+        <v>1.6E-2</v>
+      </c>
+      <c r="J172" s="2">
+        <v>43.697000000000003</v>
+      </c>
+      <c r="K172" t="s">
+        <v>215</v>
+      </c>
+      <c r="L172" s="2">
+        <v>7.9197000000000004E-2</v>
+      </c>
+      <c r="M172" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="173" spans="1:13">
+      <c r="A173" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="B173" s="4">
+        <v>1750.3859199999999</v>
+      </c>
+      <c r="C173" s="4">
+        <v>2932.9459200000001</v>
+      </c>
+      <c r="D173" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E173" s="4">
+        <v>0.12447999999999999</v>
+      </c>
+      <c r="F173">
+        <v>97.3</v>
+      </c>
+      <c r="G173" t="s">
+        <v>151</v>
+      </c>
+      <c r="H173">
+        <v>1.0999999999999999E-2</v>
+      </c>
+      <c r="J173" s="2">
+        <v>22.097000000000001</v>
+      </c>
+      <c r="K173" t="s">
+        <v>216</v>
+      </c>
+      <c r="L173" s="2">
+        <v>8.0953999999999998E-2</v>
+      </c>
+      <c r="M173" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="174" spans="1:13">
+      <c r="A174" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="B174" s="4">
+        <v>2300</v>
+      </c>
+      <c r="C174" s="4">
+        <v>3875</v>
+      </c>
+      <c r="D174" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E174" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F174">
+        <v>78.3</v>
+      </c>
+      <c r="G174" t="s">
+        <v>151</v>
+      </c>
+      <c r="H174">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="J174" s="2">
+        <v>21.286000000000001</v>
+      </c>
+      <c r="K174" t="s">
+        <v>217</v>
+      </c>
+      <c r="L174" s="2">
+        <v>0.49181000000000002</v>
+      </c>
+      <c r="M174" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="175" spans="1:13">
+      <c r="A175" s="4" t="s">
+        <v>206</v>
+      </c>
+      <c r="B175">
+        <v>1400</v>
+      </c>
+      <c r="C175">
+        <v>9800</v>
+      </c>
+      <c r="D175" t="s">
+        <v>6</v>
+      </c>
+      <c r="E175">
+        <v>3</v>
+      </c>
+      <c r="F175">
+        <v>42.7</v>
+      </c>
+      <c r="G175" t="s">
+        <v>151</v>
+      </c>
+      <c r="H175">
+        <v>2.3E-2</v>
+      </c>
+      <c r="J175" s="2">
+        <v>0.6875</v>
+      </c>
+      <c r="K175" t="s">
+        <v>222</v>
+      </c>
+      <c r="L175" s="2">
+        <v>4.5072000000000001</v>
+      </c>
+      <c r="M175" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="177" spans="1:13">
+      <c r="A177" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="B177" s="4">
+        <v>1350</v>
+      </c>
+      <c r="C177" s="4">
+        <v>2003</v>
+      </c>
+      <c r="D177" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E177" s="4">
+        <v>1</v>
+      </c>
+      <c r="F177">
+        <v>51.4</v>
+      </c>
+      <c r="G177" t="s">
+        <v>151</v>
+      </c>
+      <c r="H177">
+        <v>1.9E-2</v>
+      </c>
+      <c r="J177" s="2">
+        <v>12.598000000000001</v>
+      </c>
+      <c r="K177" t="s">
+        <v>213</v>
+      </c>
+      <c r="L177" s="2">
+        <v>2.8576999999999999</v>
+      </c>
+      <c r="M177" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="178" spans="1:13">
+      <c r="A178" s="4" t="s">
+        <v>208</v>
+      </c>
+      <c r="B178" s="4">
+        <v>4300</v>
+      </c>
+      <c r="C178" s="4">
+        <v>5800</v>
+      </c>
+      <c r="D178" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E178" s="4">
+        <v>1.25</v>
+      </c>
+      <c r="F178">
+        <v>31.4</v>
+      </c>
+      <c r="G178" t="s">
+        <v>151</v>
+      </c>
+      <c r="H178">
+        <v>3.2000000000000001E-2</v>
+      </c>
+      <c r="J178" s="2">
+        <v>36.606999999999999</v>
+      </c>
+      <c r="K178" t="s">
+        <v>214</v>
+      </c>
+      <c r="L178" s="2">
+        <v>19.902999999999999</v>
+      </c>
+      <c r="M178" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="179" spans="1:13">
+      <c r="A179" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="B179" s="4">
+        <v>3600</v>
+      </c>
+      <c r="C179" s="4">
+        <v>8200</v>
+      </c>
+      <c r="D179" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E179" s="4">
+        <v>2</v>
+      </c>
+      <c r="F179">
+        <v>63.6</v>
+      </c>
+      <c r="G179" t="s">
+        <v>151</v>
+      </c>
+      <c r="H179">
+        <v>1.6E-2</v>
+      </c>
+      <c r="J179" s="2">
+        <v>3.9157999999999999</v>
+      </c>
+      <c r="K179" t="s">
+        <v>220</v>
+      </c>
+      <c r="L179" s="2">
+        <v>3.0252000000000002E-4</v>
+      </c>
+      <c r="M179" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="180" spans="1:13">
+      <c r="A180" s="4" t="s">
+        <v>210</v>
+      </c>
+      <c r="B180" s="4">
+        <v>1750.3859199999999</v>
+      </c>
+      <c r="C180" s="4">
+        <v>2932.9459200000001</v>
+      </c>
+      <c r="D180" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E180" s="4">
+        <v>0.12447999999999999</v>
+      </c>
+      <c r="F180">
+        <v>99.7</v>
+      </c>
+      <c r="G180" t="s">
+        <v>151</v>
+      </c>
+      <c r="H180">
+        <v>0.01</v>
+      </c>
+      <c r="J180" s="2">
+        <v>23.164999999999999</v>
+      </c>
+      <c r="K180" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="181" spans="1:13">
+      <c r="A181" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="B181" s="4">
+        <v>2300</v>
+      </c>
+      <c r="C181" s="4">
+        <v>3875</v>
+      </c>
+      <c r="D181" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E181" s="4">
+        <v>0.25</v>
+      </c>
+      <c r="F181">
+        <v>78.5</v>
+      </c>
+      <c r="G181" t="s">
+        <v>151</v>
+      </c>
+      <c r="H181">
+        <v>1.2999999999999999E-2</v>
+      </c>
+      <c r="J181" s="2">
+        <v>0.58408000000000004</v>
+      </c>
+      <c r="K181" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="182" spans="1:13">
+      <c r="A182" s="4" t="s">
+        <v>212</v>
+      </c>
+      <c r="B182">
+        <v>1400</v>
+      </c>
+      <c r="C182">
+        <v>9800</v>
+      </c>
+      <c r="D182" t="s">
+        <v>6</v>
+      </c>
+      <c r="E182">
+        <v>3</v>
+      </c>
+      <c r="F182">
+        <v>42.7</v>
+      </c>
+      <c r="G182" t="s">
+        <v>151</v>
+      </c>
+      <c r="H182">
+        <v>2.3E-2</v>
+      </c>
+      <c r="J182" s="2">
+        <v>0.36934</v>
+      </c>
+      <c r="K182" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="184" spans="1:13">
+      <c r="A184" s="4" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="185" spans="1:13" ht="54" customHeight="1">
+      <c r="A185" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="B185" s="5"/>
+      <c r="C185" s="5"/>
+      <c r="D185" s="5"/>
+      <c r="E185" s="5"/>
+      <c r="F185" s="5"/>
+      <c r="G185" s="5"/>
+      <c r="H185" s="5"/>
+      <c r="I185" s="5"/>
+      <c r="J185" s="5"/>
+      <c r="K185" s="5"/>
+      <c r="L185" s="5"/>
+      <c r="M185" s="5"/>
+    </row>
+    <row r="186" spans="1:13" ht="46" customHeight="1">
+      <c r="A186" s="6" t="s">
+        <v>258</v>
+      </c>
+      <c r="B186" s="6"/>
+      <c r="C186" s="6"/>
+      <c r="D186" s="6"/>
+      <c r="E186" s="6"/>
+      <c r="F186" s="6"/>
+      <c r="G186" s="6"/>
+      <c r="H186" s="6"/>
+      <c r="I186" s="6"/>
+      <c r="J186" s="6"/>
+      <c r="K186" s="6"/>
+      <c r="L186" s="6"/>
+      <c r="M186" s="6"/>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A185:M185"/>
+    <mergeCell ref="A186:M186"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967292" verticalDpi="4294967292"/>
+  <extLst>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{64002731-A6B0-56B0-2670-7721B7C09600}">
+      <mx:PLV Mode="0" OnePage="0" WScale="0"/>
+    </ext>
+  </extLst>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="D1:H10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
+  <sheetData>
+    <row r="1" spans="4:8">
+      <c r="D1" s="2"/>
+      <c r="E1" s="2"/>
+    </row>
+    <row r="2" spans="4:8">
+      <c r="D2" s="2"/>
+      <c r="E2" s="2"/>
+      <c r="H2" s="2"/>
+    </row>
+    <row r="3" spans="4:8">
+      <c r="D3" s="2"/>
+      <c r="E3" s="2"/>
+      <c r="H3" s="2"/>
+    </row>
+    <row r="4" spans="4:8">
+      <c r="D4" s="2"/>
+      <c r="E4" s="2"/>
+      <c r="H4" s="2"/>
+    </row>
+    <row r="5" spans="4:8">
+      <c r="D5" s="2"/>
+      <c r="E5" s="2"/>
+      <c r="H5" s="2"/>
+    </row>
+    <row r="6" spans="4:8">
+      <c r="D6" s="2"/>
+      <c r="E6" s="2"/>
+      <c r="H6" s="2"/>
+    </row>
+    <row r="7" spans="4:8">
+      <c r="D7" s="2"/>
+      <c r="E7" s="2"/>
+      <c r="H7" s="2"/>
+    </row>
+    <row r="8" spans="4:8">
+      <c r="D8" s="2"/>
+      <c r="E8" s="2"/>
+      <c r="H8" s="2"/>
+    </row>
+    <row r="9" spans="4:8">
+      <c r="D9" s="2"/>
+      <c r="E9" s="2"/>
+      <c r="H9" s="2"/>
+    </row>
+    <row r="10" spans="4:8">
+      <c r="D10" s="2"/>
+      <c r="E10" s="2"/>
+      <c r="H10" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
